--- a/files/MyST_LAB2_PHMC.xlsx
+++ b/files/MyST_LAB2_PHMC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frida\Desktop\ITESO\9NO SEMESTRE\Microestructuras de Trading\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frida\Desktop\ITESO\9NO SEMESTRE\Microestructuras de Trading\MyST_LAB_3_E1\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C091EA5B-9D48-4192-8A3E-AD204B816A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D337AC-2D72-49B2-965F-587E64AA15F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -923,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -971,6 +971,12 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -978,7 +984,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,48 +1287,48 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="12.75">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="12.75">
       <c r="A13" s="3"/>
@@ -1334,140 +1341,140 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="12.75">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="12.75">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="12.75">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
@@ -1507,48 +1514,48 @@
       <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8" ht="12.75">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="3"/>
@@ -1561,140 +1568,140 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="12.75">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="42" spans="1:8" ht="12.75">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="12.75">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
@@ -1734,48 +1741,48 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8" ht="12.75">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="3"/>
@@ -1788,140 +1795,140 @@
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" ht="12.75">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="65" spans="1:8" ht="12.75">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
     </row>
     <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
     </row>
     <row r="70" spans="1:8" ht="12.75">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
+      <c r="A73" s="20"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
@@ -1961,48 +1968,48 @@
       <c r="H77" s="4"/>
     </row>
     <row r="78" spans="1:8" ht="12.75">
-      <c r="A78" s="19" t="s">
+      <c r="A78" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="A79" s="20"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="A80" s="20"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="A81" s="20"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
     </row>
     <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="3"/>
@@ -2015,140 +2022,140 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" ht="12.75">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="20"/>
+      <c r="H83" s="20"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
+      <c r="A86" s="20"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
     </row>
     <row r="88" spans="1:8" ht="12.75">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="B88" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
     </row>
     <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
     </row>
     <row r="93" spans="1:8" ht="12.75">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="17" t="s">
+      <c r="B93" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
+      <c r="A94" s="20"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="A95" s="20"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="20"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="20"/>
+      <c r="H95" s="20"/>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
+      <c r="A96" s="20"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
@@ -2188,48 +2195,48 @@
       <c r="H100" s="4"/>
     </row>
     <row r="101" spans="1:8" ht="12.75">
-      <c r="A101" s="19" t="s">
+      <c r="A101" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="20"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
+      <c r="A102" s="20"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20"/>
+      <c r="H102" s="20"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="A104" s="20"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20"/>
+      <c r="H104" s="20"/>
     </row>
     <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="3"/>
@@ -2242,140 +2249,140 @@
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" ht="12.75">
-      <c r="A106" s="17" t="s">
+      <c r="A106" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="B106" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A107" s="18"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
+      <c r="A107" s="20"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A108" s="18"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
+      <c r="A108" s="20"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="20"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A109" s="18"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
+      <c r="A109" s="20"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
     </row>
     <row r="111" spans="1:8" ht="12.75">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B111" s="17" t="s">
+      <c r="B111" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="20"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A112" s="18"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
+      <c r="A112" s="20"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="20"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A113" s="18"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
+      <c r="A114" s="20"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
+      <c r="E114" s="20"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="20"/>
+      <c r="H114" s="20"/>
     </row>
     <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
     </row>
     <row r="116" spans="1:8" ht="12.75">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B116" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="20"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A117" s="18"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
+      <c r="A117" s="20"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="20"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A118" s="18"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+      <c r="A118" s="20"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
+      <c r="E118" s="20"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A119" s="18"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
+      <c r="A119" s="20"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="20"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1" t="s">
@@ -2415,48 +2422,48 @@
       <c r="H123" s="4"/>
     </row>
     <row r="124" spans="1:8" ht="12.75">
-      <c r="A124" s="19" t="s">
+      <c r="A124" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A125" s="18"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
+      <c r="A125" s="20"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="20"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A126" s="18"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
+      <c r="A126" s="20"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="20"/>
+      <c r="E126" s="20"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A127" s="18"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
+      <c r="A127" s="20"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="20"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="20"/>
     </row>
     <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="3"/>
@@ -2469,140 +2476,140 @@
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" ht="12.75">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="20"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A130" s="18"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
+      <c r="A130" s="20"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="20"/>
+      <c r="E130" s="20"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="20"/>
+      <c r="H130" s="20"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A131" s="18"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
+      <c r="A131" s="20"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="20"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A132" s="18"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
     </row>
     <row r="134" spans="1:8" ht="12.75">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B134" s="17" t="s">
+      <c r="B134" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
     </row>
     <row r="135" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="20"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A136" s="18"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="20"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A137" s="18"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="20"/>
     </row>
     <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
     </row>
     <row r="139" spans="1:8" ht="12.75">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B139" s="17" t="s">
+      <c r="B139" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="20"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A140" s="18"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
+      <c r="A140" s="20"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+      <c r="H140" s="20"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A141" s="18"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
+      <c r="A141" s="20"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A142" s="18"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
+      <c r="A142" s="20"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="20"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="1" t="s">
@@ -2642,48 +2649,48 @@
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:8" ht="12.75">
-      <c r="A147" s="19" t="s">
+      <c r="A147" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18"/>
-      <c r="G147" s="18"/>
-      <c r="H147" s="18"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="20"/>
+      <c r="H147" s="20"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A148" s="18"/>
-      <c r="B148" s="18"/>
-      <c r="C148" s="18"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="18"/>
+      <c r="A148" s="20"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="20"/>
+      <c r="H148" s="20"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A149" s="18"/>
-      <c r="B149" s="18"/>
-      <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
+      <c r="A149" s="20"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="20"/>
+      <c r="E149" s="20"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="18"/>
-      <c r="F150" s="18"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
+      <c r="A150" s="20"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="20"/>
+      <c r="E150" s="20"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="20"/>
+      <c r="H150" s="20"/>
     </row>
     <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="3"/>
@@ -2696,140 +2703,140 @@
       <c r="H151" s="3"/>
     </row>
     <row r="152" spans="1:8" ht="12.75">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B152" s="17" t="s">
+      <c r="B152" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="18"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="18"/>
-      <c r="F152" s="18"/>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="20"/>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="A153" s="20"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
+      <c r="D153" s="20"/>
+      <c r="E153" s="20"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="20"/>
+      <c r="H153" s="20"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="18"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18"/>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="A154" s="20"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="20"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
-      <c r="C155" s="18"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="20"/>
+      <c r="E155" s="20"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="20"/>
+      <c r="H155" s="20"/>
     </row>
     <row r="157" spans="1:8" ht="12.75">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B157" s="17" t="s">
+      <c r="B157" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="18"/>
-      <c r="F157" s="18"/>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
+      <c r="C157" s="20"/>
+      <c r="D157" s="20"/>
+      <c r="E157" s="20"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="20"/>
+      <c r="H157" s="20"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A158" s="18"/>
-      <c r="B158" s="18"/>
-      <c r="C158" s="18"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="18"/>
-      <c r="F158" s="18"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
+      <c r="A158" s="20"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="E158" s="20"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
+      <c r="A159" s="20"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
+      <c r="D159" s="20"/>
+      <c r="E159" s="20"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A160" s="18"/>
-      <c r="B160" s="18"/>
-      <c r="C160" s="18"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="18"/>
-      <c r="F160" s="18"/>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
+      <c r="A160" s="20"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20"/>
+      <c r="E160" s="20"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
     </row>
     <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
     </row>
     <row r="162" spans="1:8" ht="12.75">
-      <c r="A162" s="17" t="s">
+      <c r="A162" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B162" s="17" t="s">
+      <c r="B162" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
+      <c r="C162" s="20"/>
+      <c r="D162" s="20"/>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="20"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18"/>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+      <c r="H163" s="20"/>
     </row>
     <row r="164" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A164" s="18"/>
-      <c r="B164" s="18"/>
-      <c r="C164" s="18"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
+      <c r="A164" s="20"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
     </row>
     <row r="165" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A165" s="18"/>
-      <c r="B165" s="18"/>
-      <c r="C165" s="18"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
+      <c r="A165" s="20"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+      <c r="H165" s="20"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="1" t="s">
@@ -2869,48 +2876,48 @@
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" ht="12.75">
-      <c r="A170" s="19" t="s">
+      <c r="A170" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C170" s="18"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="18"/>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="20"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A171" s="18"/>
-      <c r="B171" s="18"/>
-      <c r="C171" s="18"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="18"/>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
+      <c r="A171" s="20"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="20"/>
+      <c r="E171" s="20"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="20"/>
+      <c r="H171" s="20"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A172" s="18"/>
-      <c r="B172" s="18"/>
-      <c r="C172" s="18"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="18"/>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A173" s="18"/>
-      <c r="B173" s="18"/>
-      <c r="C173" s="18"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="18"/>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
     </row>
     <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="3"/>
@@ -2923,140 +2930,140 @@
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" ht="12.75">
-      <c r="A175" s="17" t="s">
+      <c r="A175" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="17" t="s">
+      <c r="B175" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C175" s="18"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="18"/>
-      <c r="F175" s="18"/>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
     </row>
     <row r="176" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A176" s="18"/>
-      <c r="B176" s="18"/>
-      <c r="C176" s="18"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="18"/>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A177" s="18"/>
-      <c r="B177" s="18"/>
-      <c r="C177" s="18"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="18"/>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A178" s="18"/>
-      <c r="B178" s="18"/>
-      <c r="C178" s="18"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
     </row>
     <row r="180" spans="1:8" ht="12.75">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B180" s="17" t="s">
+      <c r="B180" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="18"/>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A181" s="18"/>
-      <c r="B181" s="18"/>
-      <c r="C181" s="18"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="18"/>
-      <c r="F181" s="18"/>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
+      <c r="A181" s="20"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A182" s="18"/>
-      <c r="B182" s="18"/>
-      <c r="C182" s="18"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="18"/>
-      <c r="F182" s="18"/>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
+      <c r="A182" s="20"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="20"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="20"/>
+      <c r="H182" s="20"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A183" s="18"/>
-      <c r="B183" s="18"/>
-      <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="18"/>
-      <c r="F183" s="18"/>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
+      <c r="A183" s="20"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="20"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
     </row>
     <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
     </row>
     <row r="185" spans="1:8" ht="12.75">
-      <c r="A185" s="17" t="s">
+      <c r="A185" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B185" s="17" t="s">
+      <c r="B185" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
-      <c r="F185" s="18"/>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="20"/>
     </row>
     <row r="186" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A186" s="18"/>
-      <c r="B186" s="18"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
+      <c r="A186" s="20"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="20"/>
     </row>
     <row r="187" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A187" s="18"/>
-      <c r="B187" s="18"/>
-      <c r="C187" s="18"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="18"/>
-      <c r="F187" s="18"/>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
+      <c r="A187" s="20"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="20"/>
+      <c r="H187" s="20"/>
     </row>
     <row r="188" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A188" s="18"/>
-      <c r="B188" s="18"/>
-      <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="18"/>
-      <c r="F188" s="18"/>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
+      <c r="A188" s="20"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="20"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="20"/>
+      <c r="H188" s="20"/>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
@@ -3085,48 +3092,48 @@
       <c r="H192" s="3"/>
     </row>
     <row r="193" spans="1:8" ht="12.75">
-      <c r="A193" s="19" t="s">
+      <c r="A193" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="B193" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C193" s="18"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="18"/>
-      <c r="F193" s="18"/>
-      <c r="G193" s="18"/>
-      <c r="H193" s="18"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
     </row>
     <row r="194" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A194" s="18"/>
-      <c r="B194" s="18"/>
-      <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="18"/>
-      <c r="F194" s="18"/>
-      <c r="G194" s="18"/>
-      <c r="H194" s="18"/>
+      <c r="A194" s="20"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="20"/>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A195" s="18"/>
-      <c r="B195" s="18"/>
-      <c r="C195" s="18"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="18"/>
-      <c r="F195" s="18"/>
-      <c r="G195" s="18"/>
-      <c r="H195" s="18"/>
+      <c r="A195" s="20"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="20"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="20"/>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A196" s="18"/>
-      <c r="B196" s="18"/>
-      <c r="C196" s="18"/>
-      <c r="D196" s="18"/>
-      <c r="E196" s="18"/>
-      <c r="F196" s="18"/>
-      <c r="G196" s="18"/>
-      <c r="H196" s="18"/>
+      <c r="A196" s="20"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="20"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="20"/>
     </row>
     <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="3"/>
@@ -3139,140 +3146,140 @@
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" ht="12.75">
-      <c r="A198" s="17" t="s">
+      <c r="A198" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B198" s="17" t="s">
+      <c r="B198" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C198" s="18"/>
-      <c r="D198" s="18"/>
-      <c r="E198" s="18"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="18"/>
-      <c r="H198" s="18"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="20"/>
+      <c r="E198" s="20"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="20"/>
+      <c r="H198" s="20"/>
     </row>
     <row r="199" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A199" s="18"/>
-      <c r="B199" s="18"/>
-      <c r="C199" s="18"/>
-      <c r="D199" s="18"/>
-      <c r="E199" s="18"/>
-      <c r="F199" s="18"/>
-      <c r="G199" s="18"/>
-      <c r="H199" s="18"/>
+      <c r="A199" s="20"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="20"/>
+      <c r="E199" s="20"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A200" s="18"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
-      <c r="D200" s="18"/>
-      <c r="E200" s="18"/>
-      <c r="F200" s="18"/>
-      <c r="G200" s="18"/>
-      <c r="H200" s="18"/>
+      <c r="A200" s="20"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="20"/>
+      <c r="E200" s="20"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="20"/>
+      <c r="H200" s="20"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A201" s="18"/>
-      <c r="B201" s="18"/>
-      <c r="C201" s="18"/>
-      <c r="D201" s="18"/>
-      <c r="E201" s="18"/>
-      <c r="F201" s="18"/>
-      <c r="G201" s="18"/>
-      <c r="H201" s="18"/>
+      <c r="A201" s="20"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="20"/>
+      <c r="E201" s="20"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="20"/>
+      <c r="H201" s="20"/>
     </row>
     <row r="203" spans="1:8" ht="12.75">
-      <c r="A203" s="17" t="s">
+      <c r="A203" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="17" t="s">
+      <c r="B203" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="18"/>
-      <c r="F203" s="18"/>
-      <c r="G203" s="18"/>
-      <c r="H203" s="18"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="20"/>
+      <c r="E203" s="20"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="20"/>
+      <c r="H203" s="20"/>
     </row>
     <row r="204" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A204" s="18"/>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-      <c r="G204" s="18"/>
-      <c r="H204" s="18"/>
+      <c r="A204" s="20"/>
+      <c r="B204" s="20"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="20"/>
+      <c r="E204" s="20"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="20"/>
+      <c r="H204" s="20"/>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A205" s="18"/>
-      <c r="B205" s="18"/>
-      <c r="C205" s="18"/>
-      <c r="D205" s="18"/>
-      <c r="E205" s="18"/>
-      <c r="F205" s="18"/>
-      <c r="G205" s="18"/>
-      <c r="H205" s="18"/>
+      <c r="A205" s="20"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A206" s="18"/>
-      <c r="B206" s="18"/>
-      <c r="C206" s="18"/>
-      <c r="D206" s="18"/>
-      <c r="E206" s="18"/>
-      <c r="F206" s="18"/>
-      <c r="G206" s="18"/>
-      <c r="H206" s="18"/>
+      <c r="A206" s="20"/>
+      <c r="B206" s="20"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="20"/>
+      <c r="H206" s="20"/>
     </row>
     <row r="207" spans="1:8" ht="12.75">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
     </row>
     <row r="208" spans="1:8" ht="12.75">
-      <c r="A208" s="17" t="s">
+      <c r="A208" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B208" s="17" t="s">
+      <c r="B208" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C208" s="18"/>
-      <c r="D208" s="18"/>
-      <c r="E208" s="18"/>
-      <c r="F208" s="18"/>
-      <c r="G208" s="18"/>
-      <c r="H208" s="18"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="20"/>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="20"/>
+      <c r="H208" s="20"/>
     </row>
     <row r="209" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A209" s="18"/>
-      <c r="B209" s="18"/>
-      <c r="C209" s="18"/>
-      <c r="D209" s="18"/>
-      <c r="E209" s="18"/>
-      <c r="F209" s="18"/>
-      <c r="G209" s="18"/>
-      <c r="H209" s="18"/>
+      <c r="A209" s="20"/>
+      <c r="B209" s="20"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
+      <c r="H209" s="20"/>
     </row>
     <row r="210" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A210" s="18"/>
-      <c r="B210" s="18"/>
-      <c r="C210" s="18"/>
-      <c r="D210" s="18"/>
-      <c r="E210" s="18"/>
-      <c r="F210" s="18"/>
-      <c r="G210" s="18"/>
-      <c r="H210" s="18"/>
+      <c r="A210" s="20"/>
+      <c r="B210" s="20"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="20"/>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
     </row>
     <row r="211" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A211" s="18"/>
-      <c r="B211" s="18"/>
-      <c r="C211" s="18"/>
-      <c r="D211" s="18"/>
-      <c r="E211" s="18"/>
-      <c r="F211" s="18"/>
-      <c r="G211" s="18"/>
-      <c r="H211" s="18"/>
+      <c r="A211" s="20"/>
+      <c r="B211" s="20"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="20"/>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="1" t="s">
@@ -3301,48 +3308,48 @@
       <c r="H215" s="3"/>
     </row>
     <row r="216" spans="1:8" ht="12.75">
-      <c r="A216" s="19" t="s">
+      <c r="A216" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B216" s="19" t="s">
+      <c r="B216" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="18"/>
-      <c r="F216" s="18"/>
-      <c r="G216" s="18"/>
-      <c r="H216" s="18"/>
+      <c r="C216" s="20"/>
+      <c r="D216" s="20"/>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
     </row>
     <row r="217" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A217" s="18"/>
-      <c r="B217" s="18"/>
-      <c r="C217" s="18"/>
-      <c r="D217" s="18"/>
-      <c r="E217" s="18"/>
-      <c r="F217" s="18"/>
-      <c r="G217" s="18"/>
-      <c r="H217" s="18"/>
+      <c r="A217" s="20"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="20"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A218" s="18"/>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="18"/>
-      <c r="H218" s="18"/>
+      <c r="A218" s="20"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A219" s="18"/>
-      <c r="B219" s="18"/>
-      <c r="C219" s="18"/>
-      <c r="D219" s="18"/>
-      <c r="E219" s="18"/>
-      <c r="F219" s="18"/>
-      <c r="G219" s="18"/>
-      <c r="H219" s="18"/>
+      <c r="A219" s="20"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="20"/>
+      <c r="D219" s="20"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="20"/>
+      <c r="H219" s="20"/>
     </row>
     <row r="220" spans="1:8" ht="12.75">
       <c r="A220" s="3"/>
@@ -3355,140 +3362,140 @@
       <c r="H220" s="3"/>
     </row>
     <row r="221" spans="1:8" ht="12.75">
-      <c r="A221" s="17" t="s">
+      <c r="A221" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B221" s="17" t="s">
+      <c r="B221" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C221" s="18"/>
-      <c r="D221" s="18"/>
-      <c r="E221" s="18"/>
-      <c r="F221" s="18"/>
-      <c r="G221" s="18"/>
-      <c r="H221" s="18"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="20"/>
+      <c r="E221" s="20"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="20"/>
+      <c r="H221" s="20"/>
     </row>
     <row r="222" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A222" s="18"/>
-      <c r="B222" s="18"/>
-      <c r="C222" s="18"/>
-      <c r="D222" s="18"/>
-      <c r="E222" s="18"/>
-      <c r="F222" s="18"/>
-      <c r="G222" s="18"/>
-      <c r="H222" s="18"/>
+      <c r="A222" s="20"/>
+      <c r="B222" s="20"/>
+      <c r="C222" s="20"/>
+      <c r="D222" s="20"/>
+      <c r="E222" s="20"/>
+      <c r="F222" s="20"/>
+      <c r="G222" s="20"/>
+      <c r="H222" s="20"/>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A223" s="18"/>
-      <c r="B223" s="18"/>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="18"/>
-      <c r="F223" s="18"/>
-      <c r="G223" s="18"/>
-      <c r="H223" s="18"/>
+      <c r="A223" s="20"/>
+      <c r="B223" s="20"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A224" s="18"/>
-      <c r="B224" s="18"/>
-      <c r="C224" s="18"/>
-      <c r="D224" s="18"/>
-      <c r="E224" s="18"/>
-      <c r="F224" s="18"/>
-      <c r="G224" s="18"/>
-      <c r="H224" s="18"/>
+      <c r="A224" s="20"/>
+      <c r="B224" s="20"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
     </row>
     <row r="226" spans="1:8" ht="12.75">
-      <c r="A226" s="17" t="s">
+      <c r="A226" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B226" s="17" t="s">
+      <c r="B226" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C226" s="18"/>
-      <c r="D226" s="18"/>
-      <c r="E226" s="18"/>
-      <c r="F226" s="18"/>
-      <c r="G226" s="18"/>
-      <c r="H226" s="18"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="20"/>
     </row>
     <row r="227" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A227" s="18"/>
-      <c r="B227" s="18"/>
-      <c r="C227" s="18"/>
-      <c r="D227" s="18"/>
-      <c r="E227" s="18"/>
-      <c r="F227" s="18"/>
-      <c r="G227" s="18"/>
-      <c r="H227" s="18"/>
+      <c r="A227" s="20"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A228" s="18"/>
-      <c r="B228" s="18"/>
-      <c r="C228" s="18"/>
-      <c r="D228" s="18"/>
-      <c r="E228" s="18"/>
-      <c r="F228" s="18"/>
-      <c r="G228" s="18"/>
-      <c r="H228" s="18"/>
+      <c r="A228" s="20"/>
+      <c r="B228" s="20"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="20"/>
+      <c r="H228" s="20"/>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A229" s="18"/>
-      <c r="B229" s="18"/>
-      <c r="C229" s="18"/>
-      <c r="D229" s="18"/>
-      <c r="E229" s="18"/>
-      <c r="F229" s="18"/>
-      <c r="G229" s="18"/>
-      <c r="H229" s="18"/>
+      <c r="A229" s="20"/>
+      <c r="B229" s="20"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="20"/>
     </row>
     <row r="230" spans="1:8" ht="12.75">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
     </row>
     <row r="231" spans="1:8" ht="12.75">
-      <c r="A231" s="17" t="s">
+      <c r="A231" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B231" s="17" t="s">
+      <c r="B231" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C231" s="18"/>
-      <c r="D231" s="18"/>
-      <c r="E231" s="18"/>
-      <c r="F231" s="18"/>
-      <c r="G231" s="18"/>
-      <c r="H231" s="18"/>
+      <c r="C231" s="20"/>
+      <c r="D231" s="20"/>
+      <c r="E231" s="20"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
     </row>
     <row r="232" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A232" s="18"/>
-      <c r="B232" s="18"/>
-      <c r="C232" s="18"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="18"/>
-      <c r="F232" s="18"/>
-      <c r="G232" s="18"/>
-      <c r="H232" s="18"/>
+      <c r="A232" s="20"/>
+      <c r="B232" s="20"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
     </row>
     <row r="233" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A233" s="18"/>
-      <c r="B233" s="18"/>
-      <c r="C233" s="18"/>
-      <c r="D233" s="18"/>
-      <c r="E233" s="18"/>
-      <c r="F233" s="18"/>
-      <c r="G233" s="18"/>
-      <c r="H233" s="18"/>
+      <c r="A233" s="20"/>
+      <c r="B233" s="20"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
     </row>
     <row r="234" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A234" s="18"/>
-      <c r="B234" s="18"/>
-      <c r="C234" s="18"/>
-      <c r="D234" s="18"/>
-      <c r="E234" s="18"/>
-      <c r="F234" s="18"/>
-      <c r="G234" s="18"/>
-      <c r="H234" s="18"/>
+      <c r="A234" s="20"/>
+      <c r="B234" s="20"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="1" t="s">
@@ -3517,48 +3524,48 @@
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:8" ht="12.75">
-      <c r="A239" s="19" t="s">
+      <c r="A239" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B239" s="19" t="s">
+      <c r="B239" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="18"/>
-      <c r="F239" s="18"/>
-      <c r="G239" s="18"/>
-      <c r="H239" s="18"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="20"/>
+      <c r="E239" s="20"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="20"/>
+      <c r="H239" s="20"/>
     </row>
     <row r="240" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A240" s="18"/>
-      <c r="B240" s="18"/>
-      <c r="C240" s="18"/>
-      <c r="D240" s="18"/>
-      <c r="E240" s="18"/>
-      <c r="F240" s="18"/>
-      <c r="G240" s="18"/>
-      <c r="H240" s="18"/>
+      <c r="A240" s="20"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="20"/>
+      <c r="E240" s="20"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A241" s="18"/>
-      <c r="B241" s="18"/>
-      <c r="C241" s="18"/>
-      <c r="D241" s="18"/>
-      <c r="E241" s="18"/>
-      <c r="F241" s="18"/>
-      <c r="G241" s="18"/>
-      <c r="H241" s="18"/>
+      <c r="A241" s="20"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="20"/>
+      <c r="E241" s="20"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="20"/>
+      <c r="H241" s="20"/>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A242" s="18"/>
-      <c r="B242" s="18"/>
-      <c r="C242" s="18"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="18"/>
-      <c r="F242" s="18"/>
-      <c r="G242" s="18"/>
-      <c r="H242" s="18"/>
+      <c r="A242" s="20"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="20"/>
+      <c r="E242" s="20"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="20"/>
+      <c r="H242" s="20"/>
     </row>
     <row r="243" spans="1:8" ht="12.75">
       <c r="A243" s="3"/>
@@ -3571,140 +3578,140 @@
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="1:8" ht="12.75">
-      <c r="A244" s="17" t="s">
+      <c r="A244" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B244" s="17" t="s">
+      <c r="B244" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C244" s="18"/>
-      <c r="D244" s="18"/>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-      <c r="G244" s="18"/>
-      <c r="H244" s="18"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="20"/>
+      <c r="E244" s="20"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
     </row>
     <row r="245" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A245" s="18"/>
-      <c r="B245" s="18"/>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="18"/>
-      <c r="F245" s="18"/>
-      <c r="G245" s="18"/>
-      <c r="H245" s="18"/>
+      <c r="A245" s="20"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="20"/>
+      <c r="E245" s="20"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="20"/>
+      <c r="H245" s="20"/>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A246" s="18"/>
-      <c r="B246" s="18"/>
-      <c r="C246" s="18"/>
-      <c r="D246" s="18"/>
-      <c r="E246" s="18"/>
-      <c r="F246" s="18"/>
-      <c r="G246" s="18"/>
-      <c r="H246" s="18"/>
+      <c r="A246" s="20"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="20"/>
+      <c r="E246" s="20"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="20"/>
+      <c r="H246" s="20"/>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A247" s="18"/>
-      <c r="B247" s="18"/>
-      <c r="C247" s="18"/>
-      <c r="D247" s="18"/>
-      <c r="E247" s="18"/>
-      <c r="F247" s="18"/>
-      <c r="G247" s="18"/>
-      <c r="H247" s="18"/>
+      <c r="A247" s="20"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="20"/>
+      <c r="E247" s="20"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="20"/>
+      <c r="H247" s="20"/>
     </row>
     <row r="249" spans="1:8" ht="12.75">
-      <c r="A249" s="17" t="s">
+      <c r="A249" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B249" s="17" t="s">
+      <c r="B249" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C249" s="18"/>
-      <c r="D249" s="18"/>
-      <c r="E249" s="18"/>
-      <c r="F249" s="18"/>
-      <c r="G249" s="18"/>
-      <c r="H249" s="18"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="20"/>
+      <c r="E249" s="20"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="20"/>
+      <c r="H249" s="20"/>
     </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A250" s="18"/>
-      <c r="B250" s="18"/>
-      <c r="C250" s="18"/>
-      <c r="D250" s="18"/>
-      <c r="E250" s="18"/>
-      <c r="F250" s="18"/>
-      <c r="G250" s="18"/>
-      <c r="H250" s="18"/>
+      <c r="A250" s="20"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20"/>
+      <c r="E250" s="20"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="20"/>
+      <c r="H250" s="20"/>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A251" s="18"/>
-      <c r="B251" s="18"/>
-      <c r="C251" s="18"/>
-      <c r="D251" s="18"/>
-      <c r="E251" s="18"/>
-      <c r="F251" s="18"/>
-      <c r="G251" s="18"/>
-      <c r="H251" s="18"/>
+      <c r="A251" s="20"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="20"/>
+      <c r="E251" s="20"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="20"/>
+      <c r="H251" s="20"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A252" s="18"/>
-      <c r="B252" s="18"/>
-      <c r="C252" s="18"/>
-      <c r="D252" s="18"/>
-      <c r="E252" s="18"/>
-      <c r="F252" s="18"/>
-      <c r="G252" s="18"/>
-      <c r="H252" s="18"/>
+      <c r="A252" s="20"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="20"/>
+      <c r="E252" s="20"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="20"/>
+      <c r="H252" s="20"/>
     </row>
     <row r="253" spans="1:8" ht="12.75">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
     </row>
     <row r="254" spans="1:8" ht="12.75">
-      <c r="A254" s="17" t="s">
+      <c r="A254" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B254" s="17" t="s">
+      <c r="B254" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C254" s="18"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="18"/>
-      <c r="F254" s="18"/>
-      <c r="G254" s="18"/>
-      <c r="H254" s="18"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20"/>
+      <c r="E254" s="20"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="20"/>
+      <c r="H254" s="20"/>
     </row>
     <row r="255" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A255" s="18"/>
-      <c r="B255" s="18"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="18"/>
-      <c r="H255" s="18"/>
+      <c r="A255" s="20"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="20"/>
+      <c r="E255" s="20"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="20"/>
+      <c r="H255" s="20"/>
     </row>
     <row r="256" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A256" s="18"/>
-      <c r="B256" s="18"/>
-      <c r="C256" s="18"/>
-      <c r="D256" s="18"/>
-      <c r="E256" s="18"/>
-      <c r="F256" s="18"/>
-      <c r="G256" s="18"/>
-      <c r="H256" s="18"/>
+      <c r="A256" s="20"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="20"/>
+      <c r="E256" s="20"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="20"/>
+      <c r="H256" s="20"/>
     </row>
     <row r="257" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A257" s="18"/>
-      <c r="B257" s="18"/>
-      <c r="C257" s="18"/>
-      <c r="D257" s="18"/>
-      <c r="E257" s="18"/>
-      <c r="F257" s="18"/>
-      <c r="G257" s="18"/>
-      <c r="H257" s="18"/>
+      <c r="A257" s="20"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="20"/>
+      <c r="E257" s="20"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="20"/>
+      <c r="H257" s="20"/>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="1" t="s">
@@ -3733,48 +3740,48 @@
       <c r="H261" s="3"/>
     </row>
     <row r="262" spans="1:8" ht="12.75">
-      <c r="A262" s="19" t="s">
+      <c r="A262" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B262" s="19" t="s">
+      <c r="B262" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C262" s="18"/>
-      <c r="D262" s="18"/>
-      <c r="E262" s="18"/>
-      <c r="F262" s="18"/>
-      <c r="G262" s="18"/>
-      <c r="H262" s="18"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="20"/>
+      <c r="E262" s="20"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="20"/>
+      <c r="H262" s="20"/>
     </row>
     <row r="263" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A263" s="18"/>
-      <c r="B263" s="18"/>
-      <c r="C263" s="18"/>
-      <c r="D263" s="18"/>
-      <c r="E263" s="18"/>
-      <c r="F263" s="18"/>
-      <c r="G263" s="18"/>
-      <c r="H263" s="18"/>
+      <c r="A263" s="20"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="20"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="20"/>
+      <c r="H263" s="20"/>
     </row>
     <row r="264" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A264" s="18"/>
-      <c r="B264" s="18"/>
-      <c r="C264" s="18"/>
-      <c r="D264" s="18"/>
-      <c r="E264" s="18"/>
-      <c r="F264" s="18"/>
-      <c r="G264" s="18"/>
-      <c r="H264" s="18"/>
+      <c r="A264" s="20"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="20"/>
+      <c r="E264" s="20"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="20"/>
+      <c r="H264" s="20"/>
     </row>
     <row r="265" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A265" s="18"/>
-      <c r="B265" s="18"/>
-      <c r="C265" s="18"/>
-      <c r="D265" s="18"/>
-      <c r="E265" s="18"/>
-      <c r="F265" s="18"/>
-      <c r="G265" s="18"/>
-      <c r="H265" s="18"/>
+      <c r="A265" s="20"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="20"/>
+      <c r="E265" s="20"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20"/>
     </row>
     <row r="266" spans="1:8" ht="12.75">
       <c r="A266" s="3"/>
@@ -3787,140 +3794,140 @@
       <c r="H266" s="3"/>
     </row>
     <row r="267" spans="1:8" ht="12.75">
-      <c r="A267" s="17" t="s">
+      <c r="A267" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B267" s="17" t="s">
+      <c r="B267" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C267" s="18"/>
-      <c r="D267" s="18"/>
-      <c r="E267" s="18"/>
-      <c r="F267" s="18"/>
-      <c r="G267" s="18"/>
-      <c r="H267" s="18"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="20"/>
+      <c r="E267" s="20"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="20"/>
+      <c r="H267" s="20"/>
     </row>
     <row r="268" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A268" s="18"/>
-      <c r="B268" s="18"/>
-      <c r="C268" s="18"/>
-      <c r="D268" s="18"/>
-      <c r="E268" s="18"/>
-      <c r="F268" s="18"/>
-      <c r="G268" s="18"/>
-      <c r="H268" s="18"/>
+      <c r="A268" s="20"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="20"/>
+      <c r="E268" s="20"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
     </row>
     <row r="269" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A269" s="18"/>
-      <c r="B269" s="18"/>
-      <c r="C269" s="18"/>
-      <c r="D269" s="18"/>
-      <c r="E269" s="18"/>
-      <c r="F269" s="18"/>
-      <c r="G269" s="18"/>
-      <c r="H269" s="18"/>
+      <c r="A269" s="20"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="20"/>
+      <c r="E269" s="20"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="20"/>
+      <c r="H269" s="20"/>
     </row>
     <row r="270" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A270" s="18"/>
-      <c r="B270" s="18"/>
-      <c r="C270" s="18"/>
-      <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
-      <c r="F270" s="18"/>
-      <c r="G270" s="18"/>
-      <c r="H270" s="18"/>
+      <c r="A270" s="20"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="20"/>
+      <c r="E270" s="20"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="20"/>
+      <c r="H270" s="20"/>
     </row>
     <row r="272" spans="1:8" ht="12.75">
-      <c r="A272" s="17" t="s">
+      <c r="A272" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B272" s="17" t="s">
+      <c r="B272" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C272" s="18"/>
-      <c r="D272" s="18"/>
-      <c r="E272" s="18"/>
-      <c r="F272" s="18"/>
-      <c r="G272" s="18"/>
-      <c r="H272" s="18"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="20"/>
+      <c r="E272" s="20"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="20"/>
+      <c r="H272" s="20"/>
     </row>
     <row r="273" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A273" s="18"/>
-      <c r="B273" s="18"/>
-      <c r="C273" s="18"/>
-      <c r="D273" s="18"/>
-      <c r="E273" s="18"/>
-      <c r="F273" s="18"/>
-      <c r="G273" s="18"/>
-      <c r="H273" s="18"/>
+      <c r="A273" s="20"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="20"/>
+      <c r="E273" s="20"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="20"/>
+      <c r="H273" s="20"/>
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A274" s="18"/>
-      <c r="B274" s="18"/>
-      <c r="C274" s="18"/>
-      <c r="D274" s="18"/>
-      <c r="E274" s="18"/>
-      <c r="F274" s="18"/>
-      <c r="G274" s="18"/>
-      <c r="H274" s="18"/>
+      <c r="A274" s="20"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="20"/>
+      <c r="E274" s="20"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="20"/>
+      <c r="H274" s="20"/>
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A275" s="18"/>
-      <c r="B275" s="18"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="18"/>
-      <c r="E275" s="18"/>
-      <c r="F275" s="18"/>
-      <c r="G275" s="18"/>
-      <c r="H275" s="18"/>
+      <c r="A275" s="20"/>
+      <c r="B275" s="20"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="20"/>
+      <c r="E275" s="20"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="20"/>
+      <c r="H275" s="20"/>
     </row>
     <row r="276" spans="1:8" ht="12.75">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
     </row>
     <row r="277" spans="1:8" ht="12.75">
-      <c r="A277" s="17" t="s">
+      <c r="A277" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B277" s="17" t="s">
+      <c r="B277" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C277" s="18"/>
-      <c r="D277" s="18"/>
-      <c r="E277" s="18"/>
-      <c r="F277" s="18"/>
-      <c r="G277" s="18"/>
-      <c r="H277" s="18"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="20"/>
+      <c r="E277" s="20"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="20"/>
+      <c r="H277" s="20"/>
     </row>
     <row r="278" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A278" s="18"/>
-      <c r="B278" s="18"/>
-      <c r="C278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="18"/>
-      <c r="F278" s="18"/>
-      <c r="G278" s="18"/>
-      <c r="H278" s="18"/>
+      <c r="A278" s="20"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="20"/>
+      <c r="E278" s="20"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="20"/>
+      <c r="H278" s="20"/>
     </row>
     <row r="279" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A279" s="18"/>
-      <c r="B279" s="18"/>
-      <c r="C279" s="18"/>
-      <c r="D279" s="18"/>
-      <c r="E279" s="18"/>
-      <c r="F279" s="18"/>
-      <c r="G279" s="18"/>
-      <c r="H279" s="18"/>
+      <c r="A279" s="20"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="20"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="20"/>
+      <c r="H279" s="20"/>
     </row>
     <row r="280" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A280" s="18"/>
-      <c r="B280" s="18"/>
-      <c r="C280" s="18"/>
-      <c r="D280" s="18"/>
-      <c r="E280" s="18"/>
-      <c r="F280" s="18"/>
-      <c r="G280" s="18"/>
-      <c r="H280" s="18"/>
+      <c r="A280" s="20"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="20"/>
+      <c r="E280" s="20"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="20"/>
+      <c r="H280" s="20"/>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="1" t="s">
@@ -3949,48 +3956,48 @@
       <c r="H284" s="3"/>
     </row>
     <row r="285" spans="1:8" ht="12.75">
-      <c r="A285" s="19" t="s">
+      <c r="A285" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B285" s="19" t="s">
+      <c r="B285" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C285" s="18"/>
-      <c r="D285" s="18"/>
-      <c r="E285" s="18"/>
-      <c r="F285" s="18"/>
-      <c r="G285" s="18"/>
-      <c r="H285" s="18"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="20"/>
+      <c r="E285" s="20"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="20"/>
+      <c r="H285" s="20"/>
     </row>
     <row r="286" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A286" s="18"/>
-      <c r="B286" s="18"/>
-      <c r="C286" s="18"/>
-      <c r="D286" s="18"/>
-      <c r="E286" s="18"/>
-      <c r="F286" s="18"/>
-      <c r="G286" s="18"/>
-      <c r="H286" s="18"/>
+      <c r="A286" s="20"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="20"/>
+      <c r="E286" s="20"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="20"/>
+      <c r="H286" s="20"/>
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A287" s="18"/>
-      <c r="B287" s="18"/>
-      <c r="C287" s="18"/>
-      <c r="D287" s="18"/>
-      <c r="E287" s="18"/>
-      <c r="F287" s="18"/>
-      <c r="G287" s="18"/>
-      <c r="H287" s="18"/>
+      <c r="A287" s="20"/>
+      <c r="B287" s="20"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="20"/>
+      <c r="E287" s="20"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="20"/>
+      <c r="H287" s="20"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A288" s="18"/>
-      <c r="B288" s="18"/>
-      <c r="C288" s="18"/>
-      <c r="D288" s="18"/>
-      <c r="E288" s="18"/>
-      <c r="F288" s="18"/>
-      <c r="G288" s="18"/>
-      <c r="H288" s="18"/>
+      <c r="A288" s="20"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="20"/>
+      <c r="E288" s="20"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="20"/>
+      <c r="H288" s="20"/>
     </row>
     <row r="289" spans="1:8" ht="12.75">
       <c r="A289" s="3"/>
@@ -4003,140 +4010,140 @@
       <c r="H289" s="3"/>
     </row>
     <row r="290" spans="1:8" ht="12.75">
-      <c r="A290" s="17" t="s">
+      <c r="A290" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="17" t="s">
+      <c r="B290" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C290" s="18"/>
-      <c r="D290" s="18"/>
-      <c r="E290" s="18"/>
-      <c r="F290" s="18"/>
-      <c r="G290" s="18"/>
-      <c r="H290" s="18"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="20"/>
+      <c r="E290" s="20"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="20"/>
+      <c r="H290" s="20"/>
     </row>
     <row r="291" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A291" s="18"/>
-      <c r="B291" s="18"/>
-      <c r="C291" s="18"/>
-      <c r="D291" s="18"/>
-      <c r="E291" s="18"/>
-      <c r="F291" s="18"/>
-      <c r="G291" s="18"/>
-      <c r="H291" s="18"/>
+      <c r="A291" s="20"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="20"/>
+      <c r="E291" s="20"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="20"/>
+      <c r="H291" s="20"/>
     </row>
     <row r="292" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A292" s="18"/>
-      <c r="B292" s="18"/>
-      <c r="C292" s="18"/>
-      <c r="D292" s="18"/>
-      <c r="E292" s="18"/>
-      <c r="F292" s="18"/>
-      <c r="G292" s="18"/>
-      <c r="H292" s="18"/>
+      <c r="A292" s="20"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="20"/>
+      <c r="E292" s="20"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="20"/>
+      <c r="H292" s="20"/>
     </row>
     <row r="293" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A293" s="18"/>
-      <c r="B293" s="18"/>
-      <c r="C293" s="18"/>
-      <c r="D293" s="18"/>
-      <c r="E293" s="18"/>
-      <c r="F293" s="18"/>
-      <c r="G293" s="18"/>
-      <c r="H293" s="18"/>
+      <c r="A293" s="20"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="20"/>
+      <c r="E293" s="20"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="20"/>
+      <c r="H293" s="20"/>
     </row>
     <row r="295" spans="1:8" ht="12.75">
-      <c r="A295" s="17" t="s">
+      <c r="A295" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B295" s="17" t="s">
+      <c r="B295" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C295" s="18"/>
-      <c r="D295" s="18"/>
-      <c r="E295" s="18"/>
-      <c r="F295" s="18"/>
-      <c r="G295" s="18"/>
-      <c r="H295" s="18"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="20"/>
+      <c r="E295" s="20"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="20"/>
+      <c r="H295" s="20"/>
     </row>
     <row r="296" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A296" s="18"/>
-      <c r="B296" s="18"/>
-      <c r="C296" s="18"/>
-      <c r="D296" s="18"/>
-      <c r="E296" s="18"/>
-      <c r="F296" s="18"/>
-      <c r="G296" s="18"/>
-      <c r="H296" s="18"/>
+      <c r="A296" s="20"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="20"/>
+      <c r="E296" s="20"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="20"/>
+      <c r="H296" s="20"/>
     </row>
     <row r="297" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A297" s="18"/>
-      <c r="B297" s="18"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="18"/>
-      <c r="E297" s="18"/>
-      <c r="F297" s="18"/>
-      <c r="G297" s="18"/>
-      <c r="H297" s="18"/>
+      <c r="A297" s="20"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="20"/>
+      <c r="E297" s="20"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="20"/>
+      <c r="H297" s="20"/>
     </row>
     <row r="298" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A298" s="18"/>
-      <c r="B298" s="18"/>
-      <c r="C298" s="18"/>
-      <c r="D298" s="18"/>
-      <c r="E298" s="18"/>
-      <c r="F298" s="18"/>
-      <c r="G298" s="18"/>
-      <c r="H298" s="18"/>
+      <c r="A298" s="20"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="20"/>
+      <c r="E298" s="20"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="20"/>
+      <c r="H298" s="20"/>
     </row>
     <row r="299" spans="1:8" ht="12.75">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
     </row>
     <row r="300" spans="1:8" ht="12.75">
-      <c r="A300" s="17" t="s">
+      <c r="A300" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B300" s="17" t="s">
+      <c r="B300" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C300" s="18"/>
-      <c r="D300" s="18"/>
-      <c r="E300" s="18"/>
-      <c r="F300" s="18"/>
-      <c r="G300" s="18"/>
-      <c r="H300" s="18"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="20"/>
+      <c r="E300" s="20"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="20"/>
+      <c r="H300" s="20"/>
     </row>
     <row r="301" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A301" s="18"/>
-      <c r="B301" s="18"/>
-      <c r="C301" s="18"/>
-      <c r="D301" s="18"/>
-      <c r="E301" s="18"/>
-      <c r="F301" s="18"/>
-      <c r="G301" s="18"/>
-      <c r="H301" s="18"/>
+      <c r="A301" s="20"/>
+      <c r="B301" s="20"/>
+      <c r="C301" s="20"/>
+      <c r="D301" s="20"/>
+      <c r="E301" s="20"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="20"/>
+      <c r="H301" s="20"/>
     </row>
     <row r="302" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A302" s="18"/>
-      <c r="B302" s="18"/>
-      <c r="C302" s="18"/>
-      <c r="D302" s="18"/>
-      <c r="E302" s="18"/>
-      <c r="F302" s="18"/>
-      <c r="G302" s="18"/>
-      <c r="H302" s="18"/>
+      <c r="A302" s="20"/>
+      <c r="B302" s="20"/>
+      <c r="C302" s="20"/>
+      <c r="D302" s="20"/>
+      <c r="E302" s="20"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="20"/>
+      <c r="H302" s="20"/>
     </row>
     <row r="303" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A303" s="18"/>
-      <c r="B303" s="18"/>
-      <c r="C303" s="18"/>
-      <c r="D303" s="18"/>
-      <c r="E303" s="18"/>
-      <c r="F303" s="18"/>
-      <c r="G303" s="18"/>
-      <c r="H303" s="18"/>
+      <c r="A303" s="20"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="20"/>
+      <c r="D303" s="20"/>
+      <c r="E303" s="20"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="20"/>
+      <c r="H303" s="20"/>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="1" t="s">
@@ -4165,48 +4172,48 @@
       <c r="H307" s="3"/>
     </row>
     <row r="308" spans="1:8" ht="12.75">
-      <c r="A308" s="19" t="s">
+      <c r="A308" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B308" s="19" t="s">
+      <c r="B308" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C308" s="18"/>
-      <c r="D308" s="18"/>
-      <c r="E308" s="18"/>
-      <c r="F308" s="18"/>
-      <c r="G308" s="18"/>
-      <c r="H308" s="18"/>
+      <c r="C308" s="20"/>
+      <c r="D308" s="20"/>
+      <c r="E308" s="20"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="20"/>
+      <c r="H308" s="20"/>
     </row>
     <row r="309" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A309" s="18"/>
-      <c r="B309" s="18"/>
-      <c r="C309" s="18"/>
-      <c r="D309" s="18"/>
-      <c r="E309" s="18"/>
-      <c r="F309" s="18"/>
-      <c r="G309" s="18"/>
-      <c r="H309" s="18"/>
+      <c r="A309" s="20"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="20"/>
+      <c r="D309" s="20"/>
+      <c r="E309" s="20"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="20"/>
+      <c r="H309" s="20"/>
     </row>
     <row r="310" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A310" s="18"/>
-      <c r="B310" s="18"/>
-      <c r="C310" s="18"/>
-      <c r="D310" s="18"/>
-      <c r="E310" s="18"/>
-      <c r="F310" s="18"/>
-      <c r="G310" s="18"/>
-      <c r="H310" s="18"/>
+      <c r="A310" s="20"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="20"/>
+      <c r="E310" s="20"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="20"/>
+      <c r="H310" s="20"/>
     </row>
     <row r="311" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A311" s="18"/>
-      <c r="B311" s="18"/>
-      <c r="C311" s="18"/>
-      <c r="D311" s="18"/>
-      <c r="E311" s="18"/>
-      <c r="F311" s="18"/>
-      <c r="G311" s="18"/>
-      <c r="H311" s="18"/>
+      <c r="A311" s="20"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="20"/>
+      <c r="E311" s="20"/>
+      <c r="F311" s="20"/>
+      <c r="G311" s="20"/>
+      <c r="H311" s="20"/>
     </row>
     <row r="312" spans="1:8" ht="12.75">
       <c r="A312" s="3"/>
@@ -4219,140 +4226,140 @@
       <c r="H312" s="3"/>
     </row>
     <row r="313" spans="1:8" ht="12.75">
-      <c r="A313" s="17" t="s">
+      <c r="A313" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B313" s="17" t="s">
+      <c r="B313" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C313" s="18"/>
-      <c r="D313" s="18"/>
-      <c r="E313" s="18"/>
-      <c r="F313" s="18"/>
-      <c r="G313" s="18"/>
-      <c r="H313" s="18"/>
+      <c r="C313" s="20"/>
+      <c r="D313" s="20"/>
+      <c r="E313" s="20"/>
+      <c r="F313" s="20"/>
+      <c r="G313" s="20"/>
+      <c r="H313" s="20"/>
     </row>
     <row r="314" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A314" s="18"/>
-      <c r="B314" s="18"/>
-      <c r="C314" s="18"/>
-      <c r="D314" s="18"/>
-      <c r="E314" s="18"/>
-      <c r="F314" s="18"/>
-      <c r="G314" s="18"/>
-      <c r="H314" s="18"/>
+      <c r="A314" s="20"/>
+      <c r="B314" s="20"/>
+      <c r="C314" s="20"/>
+      <c r="D314" s="20"/>
+      <c r="E314" s="20"/>
+      <c r="F314" s="20"/>
+      <c r="G314" s="20"/>
+      <c r="H314" s="20"/>
     </row>
     <row r="315" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A315" s="18"/>
-      <c r="B315" s="18"/>
-      <c r="C315" s="18"/>
-      <c r="D315" s="18"/>
-      <c r="E315" s="18"/>
-      <c r="F315" s="18"/>
-      <c r="G315" s="18"/>
-      <c r="H315" s="18"/>
+      <c r="A315" s="20"/>
+      <c r="B315" s="20"/>
+      <c r="C315" s="20"/>
+      <c r="D315" s="20"/>
+      <c r="E315" s="20"/>
+      <c r="F315" s="20"/>
+      <c r="G315" s="20"/>
+      <c r="H315" s="20"/>
     </row>
     <row r="316" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A316" s="18"/>
-      <c r="B316" s="18"/>
-      <c r="C316" s="18"/>
-      <c r="D316" s="18"/>
-      <c r="E316" s="18"/>
-      <c r="F316" s="18"/>
-      <c r="G316" s="18"/>
-      <c r="H316" s="18"/>
+      <c r="A316" s="20"/>
+      <c r="B316" s="20"/>
+      <c r="C316" s="20"/>
+      <c r="D316" s="20"/>
+      <c r="E316" s="20"/>
+      <c r="F316" s="20"/>
+      <c r="G316" s="20"/>
+      <c r="H316" s="20"/>
     </row>
     <row r="318" spans="1:8" ht="12.75">
-      <c r="A318" s="17" t="s">
+      <c r="A318" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B318" s="17" t="s">
+      <c r="B318" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C318" s="18"/>
-      <c r="D318" s="18"/>
-      <c r="E318" s="18"/>
-      <c r="F318" s="18"/>
-      <c r="G318" s="18"/>
-      <c r="H318" s="18"/>
+      <c r="C318" s="20"/>
+      <c r="D318" s="20"/>
+      <c r="E318" s="20"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="20"/>
+      <c r="H318" s="20"/>
     </row>
     <row r="319" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A319" s="18"/>
-      <c r="B319" s="18"/>
-      <c r="C319" s="18"/>
-      <c r="D319" s="18"/>
-      <c r="E319" s="18"/>
-      <c r="F319" s="18"/>
-      <c r="G319" s="18"/>
-      <c r="H319" s="18"/>
+      <c r="A319" s="20"/>
+      <c r="B319" s="20"/>
+      <c r="C319" s="20"/>
+      <c r="D319" s="20"/>
+      <c r="E319" s="20"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="20"/>
+      <c r="H319" s="20"/>
     </row>
     <row r="320" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A320" s="18"/>
-      <c r="B320" s="18"/>
-      <c r="C320" s="18"/>
-      <c r="D320" s="18"/>
-      <c r="E320" s="18"/>
-      <c r="F320" s="18"/>
-      <c r="G320" s="18"/>
-      <c r="H320" s="18"/>
+      <c r="A320" s="20"/>
+      <c r="B320" s="20"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="20"/>
+      <c r="E320" s="20"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="20"/>
+      <c r="H320" s="20"/>
     </row>
     <row r="321" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A321" s="18"/>
-      <c r="B321" s="18"/>
-      <c r="C321" s="18"/>
-      <c r="D321" s="18"/>
-      <c r="E321" s="18"/>
-      <c r="F321" s="18"/>
-      <c r="G321" s="18"/>
-      <c r="H321" s="18"/>
+      <c r="A321" s="20"/>
+      <c r="B321" s="20"/>
+      <c r="C321" s="20"/>
+      <c r="D321" s="20"/>
+      <c r="E321" s="20"/>
+      <c r="F321" s="20"/>
+      <c r="G321" s="20"/>
+      <c r="H321" s="20"/>
     </row>
     <row r="322" spans="1:8" ht="12.75">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
     </row>
     <row r="323" spans="1:8" ht="12.75">
-      <c r="A323" s="17" t="s">
+      <c r="A323" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B323" s="17" t="s">
+      <c r="B323" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C323" s="18"/>
-      <c r="D323" s="18"/>
-      <c r="E323" s="18"/>
-      <c r="F323" s="18"/>
-      <c r="G323" s="18"/>
-      <c r="H323" s="18"/>
+      <c r="C323" s="20"/>
+      <c r="D323" s="20"/>
+      <c r="E323" s="20"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="20"/>
+      <c r="H323" s="20"/>
     </row>
     <row r="324" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A324" s="18"/>
-      <c r="B324" s="18"/>
-      <c r="C324" s="18"/>
-      <c r="D324" s="18"/>
-      <c r="E324" s="18"/>
-      <c r="F324" s="18"/>
-      <c r="G324" s="18"/>
-      <c r="H324" s="18"/>
+      <c r="A324" s="20"/>
+      <c r="B324" s="20"/>
+      <c r="C324" s="20"/>
+      <c r="D324" s="20"/>
+      <c r="E324" s="20"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="20"/>
+      <c r="H324" s="20"/>
     </row>
     <row r="325" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A325" s="18"/>
-      <c r="B325" s="18"/>
-      <c r="C325" s="18"/>
-      <c r="D325" s="18"/>
-      <c r="E325" s="18"/>
-      <c r="F325" s="18"/>
-      <c r="G325" s="18"/>
-      <c r="H325" s="18"/>
+      <c r="A325" s="20"/>
+      <c r="B325" s="20"/>
+      <c r="C325" s="20"/>
+      <c r="D325" s="20"/>
+      <c r="E325" s="20"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="20"/>
+      <c r="H325" s="20"/>
     </row>
     <row r="326" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A326" s="18"/>
-      <c r="B326" s="18"/>
-      <c r="C326" s="18"/>
-      <c r="D326" s="18"/>
-      <c r="E326" s="18"/>
-      <c r="F326" s="18"/>
-      <c r="G326" s="18"/>
-      <c r="H326" s="18"/>
+      <c r="A326" s="20"/>
+      <c r="B326" s="20"/>
+      <c r="C326" s="20"/>
+      <c r="D326" s="20"/>
+      <c r="E326" s="20"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="20"/>
+      <c r="H326" s="20"/>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="1" t="s">
@@ -4381,48 +4388,48 @@
       <c r="H330" s="3"/>
     </row>
     <row r="331" spans="1:8" ht="12.75">
-      <c r="A331" s="19" t="s">
+      <c r="A331" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B331" s="19" t="s">
+      <c r="B331" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C331" s="18"/>
-      <c r="D331" s="18"/>
-      <c r="E331" s="18"/>
-      <c r="F331" s="18"/>
-      <c r="G331" s="18"/>
-      <c r="H331" s="18"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="20"/>
+      <c r="E331" s="20"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="20"/>
+      <c r="H331" s="20"/>
     </row>
     <row r="332" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A332" s="18"/>
-      <c r="B332" s="18"/>
-      <c r="C332" s="18"/>
-      <c r="D332" s="18"/>
-      <c r="E332" s="18"/>
-      <c r="F332" s="18"/>
-      <c r="G332" s="18"/>
-      <c r="H332" s="18"/>
+      <c r="A332" s="20"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="20"/>
+      <c r="E332" s="20"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="20"/>
+      <c r="H332" s="20"/>
     </row>
     <row r="333" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A333" s="18"/>
-      <c r="B333" s="18"/>
-      <c r="C333" s="18"/>
-      <c r="D333" s="18"/>
-      <c r="E333" s="18"/>
-      <c r="F333" s="18"/>
-      <c r="G333" s="18"/>
-      <c r="H333" s="18"/>
+      <c r="A333" s="20"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="20"/>
+      <c r="E333" s="20"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="20"/>
+      <c r="H333" s="20"/>
     </row>
     <row r="334" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A334" s="18"/>
-      <c r="B334" s="18"/>
-      <c r="C334" s="18"/>
-      <c r="D334" s="18"/>
-      <c r="E334" s="18"/>
-      <c r="F334" s="18"/>
-      <c r="G334" s="18"/>
-      <c r="H334" s="18"/>
+      <c r="A334" s="20"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="20"/>
+      <c r="E334" s="20"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="20"/>
+      <c r="H334" s="20"/>
     </row>
     <row r="335" spans="1:8" ht="12.75">
       <c r="A335" s="3"/>
@@ -4435,140 +4442,140 @@
       <c r="H335" s="3"/>
     </row>
     <row r="336" spans="1:8" ht="12.75">
-      <c r="A336" s="17" t="s">
+      <c r="A336" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B336" s="17" t="s">
+      <c r="B336" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C336" s="18"/>
-      <c r="D336" s="18"/>
-      <c r="E336" s="18"/>
-      <c r="F336" s="18"/>
-      <c r="G336" s="18"/>
-      <c r="H336" s="18"/>
+      <c r="C336" s="20"/>
+      <c r="D336" s="20"/>
+      <c r="E336" s="20"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="20"/>
+      <c r="H336" s="20"/>
     </row>
     <row r="337" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A337" s="18"/>
-      <c r="B337" s="18"/>
-      <c r="C337" s="18"/>
-      <c r="D337" s="18"/>
-      <c r="E337" s="18"/>
-      <c r="F337" s="18"/>
-      <c r="G337" s="18"/>
-      <c r="H337" s="18"/>
+      <c r="A337" s="20"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="20"/>
+      <c r="D337" s="20"/>
+      <c r="E337" s="20"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="20"/>
+      <c r="H337" s="20"/>
     </row>
     <row r="338" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A338" s="18"/>
-      <c r="B338" s="18"/>
-      <c r="C338" s="18"/>
-      <c r="D338" s="18"/>
-      <c r="E338" s="18"/>
-      <c r="F338" s="18"/>
-      <c r="G338" s="18"/>
-      <c r="H338" s="18"/>
+      <c r="A338" s="20"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="20"/>
+      <c r="D338" s="20"/>
+      <c r="E338" s="20"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="20"/>
+      <c r="H338" s="20"/>
     </row>
     <row r="339" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A339" s="18"/>
-      <c r="B339" s="18"/>
-      <c r="C339" s="18"/>
-      <c r="D339" s="18"/>
-      <c r="E339" s="18"/>
-      <c r="F339" s="18"/>
-      <c r="G339" s="18"/>
-      <c r="H339" s="18"/>
+      <c r="A339" s="20"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="20"/>
+      <c r="D339" s="20"/>
+      <c r="E339" s="20"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="20"/>
+      <c r="H339" s="20"/>
     </row>
     <row r="341" spans="1:8" ht="12.75">
-      <c r="A341" s="17" t="s">
+      <c r="A341" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B341" s="17" t="s">
+      <c r="B341" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C341" s="18"/>
-      <c r="D341" s="18"/>
-      <c r="E341" s="18"/>
-      <c r="F341" s="18"/>
-      <c r="G341" s="18"/>
-      <c r="H341" s="18"/>
+      <c r="C341" s="20"/>
+      <c r="D341" s="20"/>
+      <c r="E341" s="20"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="20"/>
+      <c r="H341" s="20"/>
     </row>
     <row r="342" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A342" s="18"/>
-      <c r="B342" s="18"/>
-      <c r="C342" s="18"/>
-      <c r="D342" s="18"/>
-      <c r="E342" s="18"/>
-      <c r="F342" s="18"/>
-      <c r="G342" s="18"/>
-      <c r="H342" s="18"/>
+      <c r="A342" s="20"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="20"/>
+      <c r="D342" s="20"/>
+      <c r="E342" s="20"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="20"/>
+      <c r="H342" s="20"/>
     </row>
     <row r="343" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A343" s="18"/>
-      <c r="B343" s="18"/>
-      <c r="C343" s="18"/>
-      <c r="D343" s="18"/>
-      <c r="E343" s="18"/>
-      <c r="F343" s="18"/>
-      <c r="G343" s="18"/>
-      <c r="H343" s="18"/>
+      <c r="A343" s="20"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="20"/>
+      <c r="D343" s="20"/>
+      <c r="E343" s="20"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="20"/>
+      <c r="H343" s="20"/>
     </row>
     <row r="344" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A344" s="18"/>
-      <c r="B344" s="18"/>
-      <c r="C344" s="18"/>
-      <c r="D344" s="18"/>
-      <c r="E344" s="18"/>
-      <c r="F344" s="18"/>
-      <c r="G344" s="18"/>
-      <c r="H344" s="18"/>
+      <c r="A344" s="20"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="20"/>
+      <c r="D344" s="20"/>
+      <c r="E344" s="20"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="20"/>
+      <c r="H344" s="20"/>
     </row>
     <row r="345" spans="1:8" ht="12.75">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
     </row>
     <row r="346" spans="1:8" ht="12.75">
-      <c r="A346" s="17" t="s">
+      <c r="A346" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B346" s="17" t="s">
+      <c r="B346" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C346" s="18"/>
-      <c r="D346" s="18"/>
-      <c r="E346" s="18"/>
-      <c r="F346" s="18"/>
-      <c r="G346" s="18"/>
-      <c r="H346" s="18"/>
+      <c r="C346" s="20"/>
+      <c r="D346" s="20"/>
+      <c r="E346" s="20"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="20"/>
+      <c r="H346" s="20"/>
     </row>
     <row r="347" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A347" s="18"/>
-      <c r="B347" s="18"/>
-      <c r="C347" s="18"/>
-      <c r="D347" s="18"/>
-      <c r="E347" s="18"/>
-      <c r="F347" s="18"/>
-      <c r="G347" s="18"/>
-      <c r="H347" s="18"/>
+      <c r="A347" s="20"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="20"/>
+      <c r="D347" s="20"/>
+      <c r="E347" s="20"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="20"/>
+      <c r="H347" s="20"/>
     </row>
     <row r="348" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A348" s="18"/>
-      <c r="B348" s="18"/>
-      <c r="C348" s="18"/>
-      <c r="D348" s="18"/>
-      <c r="E348" s="18"/>
-      <c r="F348" s="18"/>
-      <c r="G348" s="18"/>
-      <c r="H348" s="18"/>
+      <c r="A348" s="20"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="20"/>
+      <c r="D348" s="20"/>
+      <c r="E348" s="20"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="20"/>
+      <c r="H348" s="20"/>
     </row>
     <row r="349" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A349" s="18"/>
-      <c r="B349" s="18"/>
-      <c r="C349" s="18"/>
-      <c r="D349" s="18"/>
-      <c r="E349" s="18"/>
-      <c r="F349" s="18"/>
-      <c r="G349" s="18"/>
-      <c r="H349" s="18"/>
+      <c r="A349" s="20"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="20"/>
+      <c r="D349" s="20"/>
+      <c r="E349" s="20"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="20"/>
+      <c r="H349" s="20"/>
     </row>
     <row r="351" spans="1:8" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
@@ -4597,48 +4604,48 @@
       <c r="H353" s="3"/>
     </row>
     <row r="354" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A354" s="19" t="s">
+      <c r="A354" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B354" s="19" t="s">
+      <c r="B354" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="C354" s="19"/>
-      <c r="D354" s="19"/>
-      <c r="E354" s="19"/>
-      <c r="F354" s="19"/>
-      <c r="G354" s="19"/>
-      <c r="H354" s="19"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="21"/>
+      <c r="G354" s="21"/>
+      <c r="H354" s="21"/>
     </row>
     <row r="355" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A355" s="18"/>
-      <c r="B355" s="19"/>
-      <c r="C355" s="19"/>
-      <c r="D355" s="19"/>
-      <c r="E355" s="19"/>
-      <c r="F355" s="19"/>
-      <c r="G355" s="19"/>
-      <c r="H355" s="19"/>
+      <c r="A355" s="20"/>
+      <c r="B355" s="21"/>
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
+      <c r="E355" s="21"/>
+      <c r="F355" s="21"/>
+      <c r="G355" s="21"/>
+      <c r="H355" s="21"/>
     </row>
     <row r="356" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A356" s="18"/>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
-      <c r="D356" s="19"/>
-      <c r="E356" s="19"/>
-      <c r="F356" s="19"/>
-      <c r="G356" s="19"/>
-      <c r="H356" s="19"/>
+      <c r="A356" s="20"/>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
+      <c r="D356" s="21"/>
+      <c r="E356" s="21"/>
+      <c r="F356" s="21"/>
+      <c r="G356" s="21"/>
+      <c r="H356" s="21"/>
     </row>
     <row r="357" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A357" s="18"/>
-      <c r="B357" s="19"/>
-      <c r="C357" s="19"/>
-      <c r="D357" s="19"/>
-      <c r="E357" s="19"/>
-      <c r="F357" s="19"/>
-      <c r="G357" s="19"/>
-      <c r="H357" s="19"/>
+      <c r="A357" s="20"/>
+      <c r="B357" s="21"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
+      <c r="E357" s="21"/>
+      <c r="F357" s="21"/>
+      <c r="G357" s="21"/>
+      <c r="H357" s="21"/>
     </row>
     <row r="358" spans="1:8" ht="15.75" customHeight="1">
       <c r="A358" s="3"/>
@@ -4651,140 +4658,140 @@
       <c r="H358" s="3"/>
     </row>
     <row r="359" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A359" s="17" t="s">
+      <c r="A359" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B359" s="17" t="s">
+      <c r="B359" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="C359" s="17"/>
-      <c r="D359" s="17"/>
-      <c r="E359" s="17"/>
-      <c r="F359" s="17"/>
-      <c r="G359" s="17"/>
-      <c r="H359" s="17"/>
+      <c r="C359" s="19"/>
+      <c r="D359" s="19"/>
+      <c r="E359" s="19"/>
+      <c r="F359" s="19"/>
+      <c r="G359" s="19"/>
+      <c r="H359" s="19"/>
     </row>
     <row r="360" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A360" s="18"/>
-      <c r="B360" s="17"/>
-      <c r="C360" s="17"/>
-      <c r="D360" s="17"/>
-      <c r="E360" s="17"/>
-      <c r="F360" s="17"/>
-      <c r="G360" s="17"/>
-      <c r="H360" s="17"/>
+      <c r="A360" s="20"/>
+      <c r="B360" s="19"/>
+      <c r="C360" s="19"/>
+      <c r="D360" s="19"/>
+      <c r="E360" s="19"/>
+      <c r="F360" s="19"/>
+      <c r="G360" s="19"/>
+      <c r="H360" s="19"/>
     </row>
     <row r="361" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A361" s="18"/>
-      <c r="B361" s="17"/>
-      <c r="C361" s="17"/>
-      <c r="D361" s="17"/>
-      <c r="E361" s="17"/>
-      <c r="F361" s="17"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="17"/>
+      <c r="A361" s="20"/>
+      <c r="B361" s="19"/>
+      <c r="C361" s="19"/>
+      <c r="D361" s="19"/>
+      <c r="E361" s="19"/>
+      <c r="F361" s="19"/>
+      <c r="G361" s="19"/>
+      <c r="H361" s="19"/>
     </row>
     <row r="362" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A362" s="18"/>
-      <c r="B362" s="17"/>
-      <c r="C362" s="17"/>
-      <c r="D362" s="17"/>
-      <c r="E362" s="17"/>
-      <c r="F362" s="17"/>
-      <c r="G362" s="17"/>
-      <c r="H362" s="17"/>
+      <c r="A362" s="20"/>
+      <c r="B362" s="19"/>
+      <c r="C362" s="19"/>
+      <c r="D362" s="19"/>
+      <c r="E362" s="19"/>
+      <c r="F362" s="19"/>
+      <c r="G362" s="19"/>
+      <c r="H362" s="19"/>
     </row>
     <row r="364" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A364" s="17" t="s">
+      <c r="A364" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B364" s="17" t="s">
+      <c r="B364" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C364" s="17"/>
-      <c r="D364" s="17"/>
-      <c r="E364" s="17"/>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
-      <c r="H364" s="17"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="19"/>
+      <c r="E364" s="19"/>
+      <c r="F364" s="19"/>
+      <c r="G364" s="19"/>
+      <c r="H364" s="19"/>
     </row>
     <row r="365" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A365" s="18"/>
-      <c r="B365" s="17"/>
-      <c r="C365" s="17"/>
-      <c r="D365" s="17"/>
-      <c r="E365" s="17"/>
-      <c r="F365" s="17"/>
-      <c r="G365" s="17"/>
-      <c r="H365" s="17"/>
+      <c r="A365" s="20"/>
+      <c r="B365" s="19"/>
+      <c r="C365" s="19"/>
+      <c r="D365" s="19"/>
+      <c r="E365" s="19"/>
+      <c r="F365" s="19"/>
+      <c r="G365" s="19"/>
+      <c r="H365" s="19"/>
     </row>
     <row r="366" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A366" s="18"/>
-      <c r="B366" s="17"/>
-      <c r="C366" s="17"/>
-      <c r="D366" s="17"/>
-      <c r="E366" s="17"/>
-      <c r="F366" s="17"/>
-      <c r="G366" s="17"/>
-      <c r="H366" s="17"/>
+      <c r="A366" s="20"/>
+      <c r="B366" s="19"/>
+      <c r="C366" s="19"/>
+      <c r="D366" s="19"/>
+      <c r="E366" s="19"/>
+      <c r="F366" s="19"/>
+      <c r="G366" s="19"/>
+      <c r="H366" s="19"/>
     </row>
     <row r="367" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A367" s="18"/>
-      <c r="B367" s="17"/>
-      <c r="C367" s="17"/>
-      <c r="D367" s="17"/>
-      <c r="E367" s="17"/>
-      <c r="F367" s="17"/>
-      <c r="G367" s="17"/>
-      <c r="H367" s="17"/>
+      <c r="A367" s="20"/>
+      <c r="B367" s="19"/>
+      <c r="C367" s="19"/>
+      <c r="D367" s="19"/>
+      <c r="E367" s="19"/>
+      <c r="F367" s="19"/>
+      <c r="G367" s="19"/>
+      <c r="H367" s="19"/>
     </row>
     <row r="368" spans="1:8" ht="15.75" customHeight="1">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
     </row>
     <row r="369" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A369" s="17" t="s">
+      <c r="A369" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B369" s="17" t="s">
+      <c r="B369" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="C369" s="17"/>
-      <c r="D369" s="17"/>
-      <c r="E369" s="17"/>
-      <c r="F369" s="17"/>
-      <c r="G369" s="17"/>
-      <c r="H369" s="17"/>
+      <c r="C369" s="19"/>
+      <c r="D369" s="19"/>
+      <c r="E369" s="19"/>
+      <c r="F369" s="19"/>
+      <c r="G369" s="19"/>
+      <c r="H369" s="19"/>
     </row>
     <row r="370" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A370" s="18"/>
-      <c r="B370" s="17"/>
-      <c r="C370" s="17"/>
-      <c r="D370" s="17"/>
-      <c r="E370" s="17"/>
-      <c r="F370" s="17"/>
-      <c r="G370" s="17"/>
-      <c r="H370" s="17"/>
+      <c r="A370" s="20"/>
+      <c r="B370" s="19"/>
+      <c r="C370" s="19"/>
+      <c r="D370" s="19"/>
+      <c r="E370" s="19"/>
+      <c r="F370" s="19"/>
+      <c r="G370" s="19"/>
+      <c r="H370" s="19"/>
     </row>
     <row r="371" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A371" s="18"/>
-      <c r="B371" s="17"/>
-      <c r="C371" s="17"/>
-      <c r="D371" s="17"/>
-      <c r="E371" s="17"/>
-      <c r="F371" s="17"/>
-      <c r="G371" s="17"/>
-      <c r="H371" s="17"/>
+      <c r="A371" s="20"/>
+      <c r="B371" s="19"/>
+      <c r="C371" s="19"/>
+      <c r="D371" s="19"/>
+      <c r="E371" s="19"/>
+      <c r="F371" s="19"/>
+      <c r="G371" s="19"/>
+      <c r="H371" s="19"/>
     </row>
     <row r="372" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A372" s="18"/>
-      <c r="B372" s="17"/>
-      <c r="C372" s="17"/>
-      <c r="D372" s="17"/>
-      <c r="E372" s="17"/>
-      <c r="F372" s="17"/>
-      <c r="G372" s="17"/>
-      <c r="H372" s="17"/>
+      <c r="A372" s="20"/>
+      <c r="B372" s="19"/>
+      <c r="C372" s="19"/>
+      <c r="D372" s="19"/>
+      <c r="E372" s="19"/>
+      <c r="F372" s="19"/>
+      <c r="G372" s="19"/>
+      <c r="H372" s="19"/>
     </row>
     <row r="374" spans="1:8" ht="15.75" customHeight="1">
       <c r="A374" s="1" t="s">
@@ -4813,48 +4820,48 @@
       <c r="H376" s="3"/>
     </row>
     <row r="377" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A377" s="19" t="s">
+      <c r="A377" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B377" s="19" t="s">
+      <c r="B377" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C377" s="19"/>
-      <c r="D377" s="19"/>
-      <c r="E377" s="19"/>
-      <c r="F377" s="19"/>
-      <c r="G377" s="19"/>
-      <c r="H377" s="19"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
+      <c r="E377" s="21"/>
+      <c r="F377" s="21"/>
+      <c r="G377" s="21"/>
+      <c r="H377" s="21"/>
     </row>
     <row r="378" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A378" s="18"/>
-      <c r="B378" s="19"/>
-      <c r="C378" s="19"/>
-      <c r="D378" s="19"/>
-      <c r="E378" s="19"/>
-      <c r="F378" s="19"/>
-      <c r="G378" s="19"/>
-      <c r="H378" s="19"/>
+      <c r="A378" s="20"/>
+      <c r="B378" s="21"/>
+      <c r="C378" s="21"/>
+      <c r="D378" s="21"/>
+      <c r="E378" s="21"/>
+      <c r="F378" s="21"/>
+      <c r="G378" s="21"/>
+      <c r="H378" s="21"/>
     </row>
     <row r="379" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A379" s="18"/>
-      <c r="B379" s="19"/>
-      <c r="C379" s="19"/>
-      <c r="D379" s="19"/>
-      <c r="E379" s="19"/>
-      <c r="F379" s="19"/>
-      <c r="G379" s="19"/>
-      <c r="H379" s="19"/>
+      <c r="A379" s="20"/>
+      <c r="B379" s="21"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
+      <c r="E379" s="21"/>
+      <c r="F379" s="21"/>
+      <c r="G379" s="21"/>
+      <c r="H379" s="21"/>
     </row>
     <row r="380" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A380" s="18"/>
-      <c r="B380" s="19"/>
-      <c r="C380" s="19"/>
-      <c r="D380" s="19"/>
-      <c r="E380" s="19"/>
-      <c r="F380" s="19"/>
-      <c r="G380" s="19"/>
-      <c r="H380" s="19"/>
+      <c r="A380" s="20"/>
+      <c r="B380" s="21"/>
+      <c r="C380" s="21"/>
+      <c r="D380" s="21"/>
+      <c r="E380" s="21"/>
+      <c r="F380" s="21"/>
+      <c r="G380" s="21"/>
+      <c r="H380" s="21"/>
     </row>
     <row r="381" spans="1:8" ht="15.75" customHeight="1">
       <c r="A381" s="3"/>
@@ -4867,140 +4874,140 @@
       <c r="H381" s="3"/>
     </row>
     <row r="382" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A382" s="17" t="s">
+      <c r="A382" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B382" s="17" t="s">
+      <c r="B382" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C382" s="17"/>
-      <c r="D382" s="17"/>
-      <c r="E382" s="17"/>
-      <c r="F382" s="17"/>
-      <c r="G382" s="17"/>
-      <c r="H382" s="17"/>
+      <c r="C382" s="19"/>
+      <c r="D382" s="19"/>
+      <c r="E382" s="19"/>
+      <c r="F382" s="19"/>
+      <c r="G382" s="19"/>
+      <c r="H382" s="19"/>
     </row>
     <row r="383" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A383" s="18"/>
-      <c r="B383" s="17"/>
-      <c r="C383" s="17"/>
-      <c r="D383" s="17"/>
-      <c r="E383" s="17"/>
-      <c r="F383" s="17"/>
-      <c r="G383" s="17"/>
-      <c r="H383" s="17"/>
+      <c r="A383" s="20"/>
+      <c r="B383" s="19"/>
+      <c r="C383" s="19"/>
+      <c r="D383" s="19"/>
+      <c r="E383" s="19"/>
+      <c r="F383" s="19"/>
+      <c r="G383" s="19"/>
+      <c r="H383" s="19"/>
     </row>
     <row r="384" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A384" s="18"/>
-      <c r="B384" s="17"/>
-      <c r="C384" s="17"/>
-      <c r="D384" s="17"/>
-      <c r="E384" s="17"/>
-      <c r="F384" s="17"/>
-      <c r="G384" s="17"/>
-      <c r="H384" s="17"/>
+      <c r="A384" s="20"/>
+      <c r="B384" s="19"/>
+      <c r="C384" s="19"/>
+      <c r="D384" s="19"/>
+      <c r="E384" s="19"/>
+      <c r="F384" s="19"/>
+      <c r="G384" s="19"/>
+      <c r="H384" s="19"/>
     </row>
     <row r="385" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A385" s="18"/>
-      <c r="B385" s="17"/>
-      <c r="C385" s="17"/>
-      <c r="D385" s="17"/>
-      <c r="E385" s="17"/>
-      <c r="F385" s="17"/>
-      <c r="G385" s="17"/>
-      <c r="H385" s="17"/>
+      <c r="A385" s="20"/>
+      <c r="B385" s="19"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="19"/>
+      <c r="E385" s="19"/>
+      <c r="F385" s="19"/>
+      <c r="G385" s="19"/>
+      <c r="H385" s="19"/>
     </row>
     <row r="387" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A387" s="17" t="s">
+      <c r="A387" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B387" s="17" t="s">
+      <c r="B387" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="C387" s="17"/>
-      <c r="D387" s="17"/>
-      <c r="E387" s="17"/>
-      <c r="F387" s="17"/>
-      <c r="G387" s="17"/>
-      <c r="H387" s="17"/>
+      <c r="C387" s="19"/>
+      <c r="D387" s="19"/>
+      <c r="E387" s="19"/>
+      <c r="F387" s="19"/>
+      <c r="G387" s="19"/>
+      <c r="H387" s="19"/>
     </row>
     <row r="388" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A388" s="18"/>
-      <c r="B388" s="17"/>
-      <c r="C388" s="17"/>
-      <c r="D388" s="17"/>
-      <c r="E388" s="17"/>
-      <c r="F388" s="17"/>
-      <c r="G388" s="17"/>
-      <c r="H388" s="17"/>
+      <c r="A388" s="20"/>
+      <c r="B388" s="19"/>
+      <c r="C388" s="19"/>
+      <c r="D388" s="19"/>
+      <c r="E388" s="19"/>
+      <c r="F388" s="19"/>
+      <c r="G388" s="19"/>
+      <c r="H388" s="19"/>
     </row>
     <row r="389" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A389" s="18"/>
-      <c r="B389" s="17"/>
-      <c r="C389" s="17"/>
-      <c r="D389" s="17"/>
-      <c r="E389" s="17"/>
-      <c r="F389" s="17"/>
-      <c r="G389" s="17"/>
-      <c r="H389" s="17"/>
+      <c r="A389" s="20"/>
+      <c r="B389" s="19"/>
+      <c r="C389" s="19"/>
+      <c r="D389" s="19"/>
+      <c r="E389" s="19"/>
+      <c r="F389" s="19"/>
+      <c r="G389" s="19"/>
+      <c r="H389" s="19"/>
     </row>
     <row r="390" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A390" s="18"/>
-      <c r="B390" s="17"/>
-      <c r="C390" s="17"/>
-      <c r="D390" s="17"/>
-      <c r="E390" s="17"/>
-      <c r="F390" s="17"/>
-      <c r="G390" s="17"/>
-      <c r="H390" s="17"/>
+      <c r="A390" s="20"/>
+      <c r="B390" s="19"/>
+      <c r="C390" s="19"/>
+      <c r="D390" s="19"/>
+      <c r="E390" s="19"/>
+      <c r="F390" s="19"/>
+      <c r="G390" s="19"/>
+      <c r="H390" s="19"/>
     </row>
     <row r="391" spans="1:8" ht="15.75" customHeight="1">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
     </row>
     <row r="392" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A392" s="17" t="s">
+      <c r="A392" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B392" s="17" t="s">
+      <c r="B392" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C392" s="17"/>
-      <c r="D392" s="17"/>
-      <c r="E392" s="17"/>
-      <c r="F392" s="17"/>
-      <c r="G392" s="17"/>
-      <c r="H392" s="17"/>
+      <c r="C392" s="19"/>
+      <c r="D392" s="19"/>
+      <c r="E392" s="19"/>
+      <c r="F392" s="19"/>
+      <c r="G392" s="19"/>
+      <c r="H392" s="19"/>
     </row>
     <row r="393" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A393" s="18"/>
-      <c r="B393" s="17"/>
-      <c r="C393" s="17"/>
-      <c r="D393" s="17"/>
-      <c r="E393" s="17"/>
-      <c r="F393" s="17"/>
-      <c r="G393" s="17"/>
-      <c r="H393" s="17"/>
+      <c r="A393" s="20"/>
+      <c r="B393" s="19"/>
+      <c r="C393" s="19"/>
+      <c r="D393" s="19"/>
+      <c r="E393" s="19"/>
+      <c r="F393" s="19"/>
+      <c r="G393" s="19"/>
+      <c r="H393" s="19"/>
     </row>
     <row r="394" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A394" s="18"/>
-      <c r="B394" s="17"/>
-      <c r="C394" s="17"/>
-      <c r="D394" s="17"/>
-      <c r="E394" s="17"/>
-      <c r="F394" s="17"/>
-      <c r="G394" s="17"/>
-      <c r="H394" s="17"/>
+      <c r="A394" s="20"/>
+      <c r="B394" s="19"/>
+      <c r="C394" s="19"/>
+      <c r="D394" s="19"/>
+      <c r="E394" s="19"/>
+      <c r="F394" s="19"/>
+      <c r="G394" s="19"/>
+      <c r="H394" s="19"/>
     </row>
     <row r="395" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A395" s="18"/>
-      <c r="B395" s="17"/>
-      <c r="C395" s="17"/>
-      <c r="D395" s="17"/>
-      <c r="E395" s="17"/>
-      <c r="F395" s="17"/>
-      <c r="G395" s="17"/>
-      <c r="H395" s="17"/>
+      <c r="A395" s="20"/>
+      <c r="B395" s="19"/>
+      <c r="C395" s="19"/>
+      <c r="D395" s="19"/>
+      <c r="E395" s="19"/>
+      <c r="F395" s="19"/>
+      <c r="G395" s="19"/>
+      <c r="H395" s="19"/>
     </row>
     <row r="397" spans="1:8" ht="15.75" customHeight="1">
       <c r="A397" s="1" t="s">
@@ -5029,48 +5036,48 @@
       <c r="H399" s="3"/>
     </row>
     <row r="400" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A400" s="19" t="s">
+      <c r="A400" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B400" s="19" t="s">
+      <c r="B400" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="C400" s="18"/>
-      <c r="D400" s="18"/>
-      <c r="E400" s="18"/>
-      <c r="F400" s="18"/>
-      <c r="G400" s="18"/>
-      <c r="H400" s="18"/>
+      <c r="C400" s="20"/>
+      <c r="D400" s="20"/>
+      <c r="E400" s="20"/>
+      <c r="F400" s="20"/>
+      <c r="G400" s="20"/>
+      <c r="H400" s="20"/>
     </row>
     <row r="401" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A401" s="18"/>
-      <c r="B401" s="18"/>
-      <c r="C401" s="18"/>
-      <c r="D401" s="18"/>
-      <c r="E401" s="18"/>
-      <c r="F401" s="18"/>
-      <c r="G401" s="18"/>
-      <c r="H401" s="18"/>
+      <c r="A401" s="20"/>
+      <c r="B401" s="20"/>
+      <c r="C401" s="20"/>
+      <c r="D401" s="20"/>
+      <c r="E401" s="20"/>
+      <c r="F401" s="20"/>
+      <c r="G401" s="20"/>
+      <c r="H401" s="20"/>
     </row>
     <row r="402" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A402" s="18"/>
-      <c r="B402" s="18"/>
-      <c r="C402" s="18"/>
-      <c r="D402" s="18"/>
-      <c r="E402" s="18"/>
-      <c r="F402" s="18"/>
-      <c r="G402" s="18"/>
-      <c r="H402" s="18"/>
+      <c r="A402" s="20"/>
+      <c r="B402" s="20"/>
+      <c r="C402" s="20"/>
+      <c r="D402" s="20"/>
+      <c r="E402" s="20"/>
+      <c r="F402" s="20"/>
+      <c r="G402" s="20"/>
+      <c r="H402" s="20"/>
     </row>
     <row r="403" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A403" s="18"/>
-      <c r="B403" s="18"/>
-      <c r="C403" s="18"/>
-      <c r="D403" s="18"/>
-      <c r="E403" s="18"/>
-      <c r="F403" s="18"/>
-      <c r="G403" s="18"/>
-      <c r="H403" s="18"/>
+      <c r="A403" s="20"/>
+      <c r="B403" s="20"/>
+      <c r="C403" s="20"/>
+      <c r="D403" s="20"/>
+      <c r="E403" s="20"/>
+      <c r="F403" s="20"/>
+      <c r="G403" s="20"/>
+      <c r="H403" s="20"/>
     </row>
     <row r="404" spans="1:8" ht="15.75" customHeight="1">
       <c r="A404" s="3"/>
@@ -5083,140 +5090,140 @@
       <c r="H404" s="3"/>
     </row>
     <row r="405" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A405" s="17" t="s">
+      <c r="A405" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B405" s="17" t="s">
+      <c r="B405" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C405" s="18"/>
-      <c r="D405" s="18"/>
-      <c r="E405" s="18"/>
-      <c r="F405" s="18"/>
-      <c r="G405" s="18"/>
-      <c r="H405" s="18"/>
+      <c r="C405" s="20"/>
+      <c r="D405" s="20"/>
+      <c r="E405" s="20"/>
+      <c r="F405" s="20"/>
+      <c r="G405" s="20"/>
+      <c r="H405" s="20"/>
     </row>
     <row r="406" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A406" s="18"/>
-      <c r="B406" s="18"/>
-      <c r="C406" s="18"/>
-      <c r="D406" s="18"/>
-      <c r="E406" s="18"/>
-      <c r="F406" s="18"/>
-      <c r="G406" s="18"/>
-      <c r="H406" s="18"/>
+      <c r="A406" s="20"/>
+      <c r="B406" s="20"/>
+      <c r="C406" s="20"/>
+      <c r="D406" s="20"/>
+      <c r="E406" s="20"/>
+      <c r="F406" s="20"/>
+      <c r="G406" s="20"/>
+      <c r="H406" s="20"/>
     </row>
     <row r="407" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A407" s="18"/>
-      <c r="B407" s="18"/>
-      <c r="C407" s="18"/>
-      <c r="D407" s="18"/>
-      <c r="E407" s="18"/>
-      <c r="F407" s="18"/>
-      <c r="G407" s="18"/>
-      <c r="H407" s="18"/>
+      <c r="A407" s="20"/>
+      <c r="B407" s="20"/>
+      <c r="C407" s="20"/>
+      <c r="D407" s="20"/>
+      <c r="E407" s="20"/>
+      <c r="F407" s="20"/>
+      <c r="G407" s="20"/>
+      <c r="H407" s="20"/>
     </row>
     <row r="408" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A408" s="18"/>
-      <c r="B408" s="18"/>
-      <c r="C408" s="18"/>
-      <c r="D408" s="18"/>
-      <c r="E408" s="18"/>
-      <c r="F408" s="18"/>
-      <c r="G408" s="18"/>
-      <c r="H408" s="18"/>
+      <c r="A408" s="20"/>
+      <c r="B408" s="20"/>
+      <c r="C408" s="20"/>
+      <c r="D408" s="20"/>
+      <c r="E408" s="20"/>
+      <c r="F408" s="20"/>
+      <c r="G408" s="20"/>
+      <c r="H408" s="20"/>
     </row>
     <row r="410" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A410" s="17" t="s">
+      <c r="A410" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B410" s="17" t="s">
+      <c r="B410" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C410" s="18"/>
-      <c r="D410" s="18"/>
-      <c r="E410" s="18"/>
-      <c r="F410" s="18"/>
-      <c r="G410" s="18"/>
-      <c r="H410" s="18"/>
+      <c r="C410" s="20"/>
+      <c r="D410" s="20"/>
+      <c r="E410" s="20"/>
+      <c r="F410" s="20"/>
+      <c r="G410" s="20"/>
+      <c r="H410" s="20"/>
     </row>
     <row r="411" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A411" s="18"/>
-      <c r="B411" s="18"/>
-      <c r="C411" s="18"/>
-      <c r="D411" s="18"/>
-      <c r="E411" s="18"/>
-      <c r="F411" s="18"/>
-      <c r="G411" s="18"/>
-      <c r="H411" s="18"/>
+      <c r="A411" s="20"/>
+      <c r="B411" s="20"/>
+      <c r="C411" s="20"/>
+      <c r="D411" s="20"/>
+      <c r="E411" s="20"/>
+      <c r="F411" s="20"/>
+      <c r="G411" s="20"/>
+      <c r="H411" s="20"/>
     </row>
     <row r="412" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A412" s="18"/>
-      <c r="B412" s="18"/>
-      <c r="C412" s="18"/>
-      <c r="D412" s="18"/>
-      <c r="E412" s="18"/>
-      <c r="F412" s="18"/>
-      <c r="G412" s="18"/>
-      <c r="H412" s="18"/>
+      <c r="A412" s="20"/>
+      <c r="B412" s="20"/>
+      <c r="C412" s="20"/>
+      <c r="D412" s="20"/>
+      <c r="E412" s="20"/>
+      <c r="F412" s="20"/>
+      <c r="G412" s="20"/>
+      <c r="H412" s="20"/>
     </row>
     <row r="413" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A413" s="18"/>
-      <c r="B413" s="18"/>
-      <c r="C413" s="18"/>
-      <c r="D413" s="18"/>
-      <c r="E413" s="18"/>
-      <c r="F413" s="18"/>
-      <c r="G413" s="18"/>
-      <c r="H413" s="18"/>
+      <c r="A413" s="20"/>
+      <c r="B413" s="20"/>
+      <c r="C413" s="20"/>
+      <c r="D413" s="20"/>
+      <c r="E413" s="20"/>
+      <c r="F413" s="20"/>
+      <c r="G413" s="20"/>
+      <c r="H413" s="20"/>
     </row>
     <row r="414" spans="1:8" ht="15.75" customHeight="1">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
     </row>
     <row r="415" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A415" s="17" t="s">
+      <c r="A415" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B415" s="17" t="s">
+      <c r="B415" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C415" s="18"/>
-      <c r="D415" s="18"/>
-      <c r="E415" s="18"/>
-      <c r="F415" s="18"/>
-      <c r="G415" s="18"/>
-      <c r="H415" s="18"/>
+      <c r="C415" s="20"/>
+      <c r="D415" s="20"/>
+      <c r="E415" s="20"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="20"/>
+      <c r="H415" s="20"/>
     </row>
     <row r="416" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A416" s="18"/>
-      <c r="B416" s="18"/>
-      <c r="C416" s="18"/>
-      <c r="D416" s="18"/>
-      <c r="E416" s="18"/>
-      <c r="F416" s="18"/>
-      <c r="G416" s="18"/>
-      <c r="H416" s="18"/>
+      <c r="A416" s="20"/>
+      <c r="B416" s="20"/>
+      <c r="C416" s="20"/>
+      <c r="D416" s="20"/>
+      <c r="E416" s="20"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="20"/>
+      <c r="H416" s="20"/>
     </row>
     <row r="417" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A417" s="18"/>
-      <c r="B417" s="18"/>
-      <c r="C417" s="18"/>
-      <c r="D417" s="18"/>
-      <c r="E417" s="18"/>
-      <c r="F417" s="18"/>
-      <c r="G417" s="18"/>
-      <c r="H417" s="18"/>
+      <c r="A417" s="20"/>
+      <c r="B417" s="20"/>
+      <c r="C417" s="20"/>
+      <c r="D417" s="20"/>
+      <c r="E417" s="20"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="20"/>
+      <c r="H417" s="20"/>
     </row>
     <row r="418" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A418" s="18"/>
-      <c r="B418" s="18"/>
-      <c r="C418" s="18"/>
-      <c r="D418" s="18"/>
-      <c r="E418" s="18"/>
-      <c r="F418" s="18"/>
-      <c r="G418" s="18"/>
-      <c r="H418" s="18"/>
+      <c r="A418" s="20"/>
+      <c r="B418" s="20"/>
+      <c r="C418" s="20"/>
+      <c r="D418" s="20"/>
+      <c r="E418" s="20"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="20"/>
+      <c r="H418" s="20"/>
     </row>
     <row r="420" spans="1:8" ht="15.75" customHeight="1">
       <c r="A420" s="1" t="s">
@@ -5245,48 +5252,48 @@
       <c r="H422" s="3"/>
     </row>
     <row r="423" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A423" s="19" t="s">
+      <c r="A423" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B423" s="19" t="s">
+      <c r="B423" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C423" s="18"/>
-      <c r="D423" s="18"/>
-      <c r="E423" s="18"/>
-      <c r="F423" s="18"/>
-      <c r="G423" s="18"/>
-      <c r="H423" s="18"/>
+      <c r="C423" s="20"/>
+      <c r="D423" s="20"/>
+      <c r="E423" s="20"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="20"/>
+      <c r="H423" s="20"/>
     </row>
     <row r="424" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A424" s="18"/>
-      <c r="B424" s="18"/>
-      <c r="C424" s="18"/>
-      <c r="D424" s="18"/>
-      <c r="E424" s="18"/>
-      <c r="F424" s="18"/>
-      <c r="G424" s="18"/>
-      <c r="H424" s="18"/>
+      <c r="A424" s="20"/>
+      <c r="B424" s="20"/>
+      <c r="C424" s="20"/>
+      <c r="D424" s="20"/>
+      <c r="E424" s="20"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="20"/>
+      <c r="H424" s="20"/>
     </row>
     <row r="425" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A425" s="18"/>
-      <c r="B425" s="18"/>
-      <c r="C425" s="18"/>
-      <c r="D425" s="18"/>
-      <c r="E425" s="18"/>
-      <c r="F425" s="18"/>
-      <c r="G425" s="18"/>
-      <c r="H425" s="18"/>
+      <c r="A425" s="20"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="20"/>
+      <c r="D425" s="20"/>
+      <c r="E425" s="20"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="20"/>
+      <c r="H425" s="20"/>
     </row>
     <row r="426" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A426" s="18"/>
-      <c r="B426" s="18"/>
-      <c r="C426" s="18"/>
-      <c r="D426" s="18"/>
-      <c r="E426" s="18"/>
-      <c r="F426" s="18"/>
-      <c r="G426" s="18"/>
-      <c r="H426" s="18"/>
+      <c r="A426" s="20"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="20"/>
+      <c r="D426" s="20"/>
+      <c r="E426" s="20"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="20"/>
+      <c r="H426" s="20"/>
     </row>
     <row r="427" spans="1:8" ht="15.75" customHeight="1">
       <c r="A427" s="3"/>
@@ -5299,140 +5306,140 @@
       <c r="H427" s="3"/>
     </row>
     <row r="428" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A428" s="17" t="s">
+      <c r="A428" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B428" s="17" t="s">
+      <c r="B428" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C428" s="18"/>
-      <c r="D428" s="18"/>
-      <c r="E428" s="18"/>
-      <c r="F428" s="18"/>
-      <c r="G428" s="18"/>
-      <c r="H428" s="18"/>
+      <c r="C428" s="20"/>
+      <c r="D428" s="20"/>
+      <c r="E428" s="20"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="20"/>
+      <c r="H428" s="20"/>
     </row>
     <row r="429" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A429" s="18"/>
-      <c r="B429" s="18"/>
-      <c r="C429" s="18"/>
-      <c r="D429" s="18"/>
-      <c r="E429" s="18"/>
-      <c r="F429" s="18"/>
-      <c r="G429" s="18"/>
-      <c r="H429" s="18"/>
+      <c r="A429" s="20"/>
+      <c r="B429" s="20"/>
+      <c r="C429" s="20"/>
+      <c r="D429" s="20"/>
+      <c r="E429" s="20"/>
+      <c r="F429" s="20"/>
+      <c r="G429" s="20"/>
+      <c r="H429" s="20"/>
     </row>
     <row r="430" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A430" s="18"/>
-      <c r="B430" s="18"/>
-      <c r="C430" s="18"/>
-      <c r="D430" s="18"/>
-      <c r="E430" s="18"/>
-      <c r="F430" s="18"/>
-      <c r="G430" s="18"/>
-      <c r="H430" s="18"/>
+      <c r="A430" s="20"/>
+      <c r="B430" s="20"/>
+      <c r="C430" s="20"/>
+      <c r="D430" s="20"/>
+      <c r="E430" s="20"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="20"/>
+      <c r="H430" s="20"/>
     </row>
     <row r="431" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A431" s="18"/>
-      <c r="B431" s="18"/>
-      <c r="C431" s="18"/>
-      <c r="D431" s="18"/>
-      <c r="E431" s="18"/>
-      <c r="F431" s="18"/>
-      <c r="G431" s="18"/>
-      <c r="H431" s="18"/>
+      <c r="A431" s="20"/>
+      <c r="B431" s="20"/>
+      <c r="C431" s="20"/>
+      <c r="D431" s="20"/>
+      <c r="E431" s="20"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="20"/>
+      <c r="H431" s="20"/>
     </row>
     <row r="433" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A433" s="17" t="s">
+      <c r="A433" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B433" s="17" t="s">
+      <c r="B433" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C433" s="18"/>
-      <c r="D433" s="18"/>
-      <c r="E433" s="18"/>
-      <c r="F433" s="18"/>
-      <c r="G433" s="18"/>
-      <c r="H433" s="18"/>
+      <c r="C433" s="20"/>
+      <c r="D433" s="20"/>
+      <c r="E433" s="20"/>
+      <c r="F433" s="20"/>
+      <c r="G433" s="20"/>
+      <c r="H433" s="20"/>
     </row>
     <row r="434" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A434" s="18"/>
-      <c r="B434" s="18"/>
-      <c r="C434" s="18"/>
-      <c r="D434" s="18"/>
-      <c r="E434" s="18"/>
-      <c r="F434" s="18"/>
-      <c r="G434" s="18"/>
-      <c r="H434" s="18"/>
+      <c r="A434" s="20"/>
+      <c r="B434" s="20"/>
+      <c r="C434" s="20"/>
+      <c r="D434" s="20"/>
+      <c r="E434" s="20"/>
+      <c r="F434" s="20"/>
+      <c r="G434" s="20"/>
+      <c r="H434" s="20"/>
     </row>
     <row r="435" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A435" s="18"/>
-      <c r="B435" s="18"/>
-      <c r="C435" s="18"/>
-      <c r="D435" s="18"/>
-      <c r="E435" s="18"/>
-      <c r="F435" s="18"/>
-      <c r="G435" s="18"/>
-      <c r="H435" s="18"/>
+      <c r="A435" s="20"/>
+      <c r="B435" s="20"/>
+      <c r="C435" s="20"/>
+      <c r="D435" s="20"/>
+      <c r="E435" s="20"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="20"/>
+      <c r="H435" s="20"/>
     </row>
     <row r="436" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A436" s="18"/>
-      <c r="B436" s="18"/>
-      <c r="C436" s="18"/>
-      <c r="D436" s="18"/>
-      <c r="E436" s="18"/>
-      <c r="F436" s="18"/>
-      <c r="G436" s="18"/>
-      <c r="H436" s="18"/>
+      <c r="A436" s="20"/>
+      <c r="B436" s="20"/>
+      <c r="C436" s="20"/>
+      <c r="D436" s="20"/>
+      <c r="E436" s="20"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="20"/>
+      <c r="H436" s="20"/>
     </row>
     <row r="437" spans="1:8" ht="15.75" customHeight="1">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
     </row>
     <row r="438" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A438" s="17" t="s">
+      <c r="A438" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B438" s="17" t="s">
+      <c r="B438" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="C438" s="18"/>
-      <c r="D438" s="18"/>
-      <c r="E438" s="18"/>
-      <c r="F438" s="18"/>
-      <c r="G438" s="18"/>
-      <c r="H438" s="18"/>
+      <c r="C438" s="20"/>
+      <c r="D438" s="20"/>
+      <c r="E438" s="20"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="20"/>
+      <c r="H438" s="20"/>
     </row>
     <row r="439" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A439" s="18"/>
-      <c r="B439" s="18"/>
-      <c r="C439" s="18"/>
-      <c r="D439" s="18"/>
-      <c r="E439" s="18"/>
-      <c r="F439" s="18"/>
-      <c r="G439" s="18"/>
-      <c r="H439" s="18"/>
+      <c r="A439" s="20"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="20"/>
+      <c r="D439" s="20"/>
+      <c r="E439" s="20"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="20"/>
+      <c r="H439" s="20"/>
     </row>
     <row r="440" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A440" s="18"/>
-      <c r="B440" s="18"/>
-      <c r="C440" s="18"/>
-      <c r="D440" s="18"/>
-      <c r="E440" s="18"/>
-      <c r="F440" s="18"/>
-      <c r="G440" s="18"/>
-      <c r="H440" s="18"/>
+      <c r="A440" s="20"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="20"/>
+      <c r="D440" s="20"/>
+      <c r="E440" s="20"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="20"/>
+      <c r="H440" s="20"/>
     </row>
     <row r="441" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A441" s="18"/>
-      <c r="B441" s="18"/>
-      <c r="C441" s="18"/>
-      <c r="D441" s="18"/>
-      <c r="E441" s="18"/>
-      <c r="F441" s="18"/>
-      <c r="G441" s="18"/>
-      <c r="H441" s="18"/>
+      <c r="A441" s="20"/>
+      <c r="B441" s="20"/>
+      <c r="C441" s="20"/>
+      <c r="D441" s="20"/>
+      <c r="E441" s="20"/>
+      <c r="F441" s="20"/>
+      <c r="G441" s="20"/>
+      <c r="H441" s="20"/>
     </row>
     <row r="443" spans="1:8" ht="15.75" customHeight="1">
       <c r="A443" s="1" t="s">
@@ -5461,48 +5468,48 @@
       <c r="H445" s="3"/>
     </row>
     <row r="446" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A446" s="19" t="s">
+      <c r="A446" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B446" s="19" t="s">
+      <c r="B446" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C446" s="18"/>
-      <c r="D446" s="18"/>
-      <c r="E446" s="18"/>
-      <c r="F446" s="18"/>
-      <c r="G446" s="18"/>
-      <c r="H446" s="18"/>
+      <c r="C446" s="20"/>
+      <c r="D446" s="20"/>
+      <c r="E446" s="20"/>
+      <c r="F446" s="20"/>
+      <c r="G446" s="20"/>
+      <c r="H446" s="20"/>
     </row>
     <row r="447" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A447" s="18"/>
-      <c r="B447" s="18"/>
-      <c r="C447" s="18"/>
-      <c r="D447" s="18"/>
-      <c r="E447" s="18"/>
-      <c r="F447" s="18"/>
-      <c r="G447" s="18"/>
-      <c r="H447" s="18"/>
+      <c r="A447" s="20"/>
+      <c r="B447" s="20"/>
+      <c r="C447" s="20"/>
+      <c r="D447" s="20"/>
+      <c r="E447" s="20"/>
+      <c r="F447" s="20"/>
+      <c r="G447" s="20"/>
+      <c r="H447" s="20"/>
     </row>
     <row r="448" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A448" s="18"/>
-      <c r="B448" s="18"/>
-      <c r="C448" s="18"/>
-      <c r="D448" s="18"/>
-      <c r="E448" s="18"/>
-      <c r="F448" s="18"/>
-      <c r="G448" s="18"/>
-      <c r="H448" s="18"/>
+      <c r="A448" s="20"/>
+      <c r="B448" s="20"/>
+      <c r="C448" s="20"/>
+      <c r="D448" s="20"/>
+      <c r="E448" s="20"/>
+      <c r="F448" s="20"/>
+      <c r="G448" s="20"/>
+      <c r="H448" s="20"/>
     </row>
     <row r="449" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A449" s="18"/>
-      <c r="B449" s="18"/>
-      <c r="C449" s="18"/>
-      <c r="D449" s="18"/>
-      <c r="E449" s="18"/>
-      <c r="F449" s="18"/>
-      <c r="G449" s="18"/>
-      <c r="H449" s="18"/>
+      <c r="A449" s="20"/>
+      <c r="B449" s="20"/>
+      <c r="C449" s="20"/>
+      <c r="D449" s="20"/>
+      <c r="E449" s="20"/>
+      <c r="F449" s="20"/>
+      <c r="G449" s="20"/>
+      <c r="H449" s="20"/>
     </row>
     <row r="450" spans="1:8" ht="15.75" customHeight="1">
       <c r="A450" s="3"/>
@@ -5515,140 +5522,140 @@
       <c r="H450" s="3"/>
     </row>
     <row r="451" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A451" s="17" t="s">
+      <c r="A451" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B451" s="17" t="s">
+      <c r="B451" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C451" s="18"/>
-      <c r="D451" s="18"/>
-      <c r="E451" s="18"/>
-      <c r="F451" s="18"/>
-      <c r="G451" s="18"/>
-      <c r="H451" s="18"/>
+      <c r="C451" s="20"/>
+      <c r="D451" s="20"/>
+      <c r="E451" s="20"/>
+      <c r="F451" s="20"/>
+      <c r="G451" s="20"/>
+      <c r="H451" s="20"/>
     </row>
     <row r="452" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A452" s="18"/>
-      <c r="B452" s="18"/>
-      <c r="C452" s="18"/>
-      <c r="D452" s="18"/>
-      <c r="E452" s="18"/>
-      <c r="F452" s="18"/>
-      <c r="G452" s="18"/>
-      <c r="H452" s="18"/>
+      <c r="A452" s="20"/>
+      <c r="B452" s="20"/>
+      <c r="C452" s="20"/>
+      <c r="D452" s="20"/>
+      <c r="E452" s="20"/>
+      <c r="F452" s="20"/>
+      <c r="G452" s="20"/>
+      <c r="H452" s="20"/>
     </row>
     <row r="453" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A453" s="18"/>
-      <c r="B453" s="18"/>
-      <c r="C453" s="18"/>
-      <c r="D453" s="18"/>
-      <c r="E453" s="18"/>
-      <c r="F453" s="18"/>
-      <c r="G453" s="18"/>
-      <c r="H453" s="18"/>
+      <c r="A453" s="20"/>
+      <c r="B453" s="20"/>
+      <c r="C453" s="20"/>
+      <c r="D453" s="20"/>
+      <c r="E453" s="20"/>
+      <c r="F453" s="20"/>
+      <c r="G453" s="20"/>
+      <c r="H453" s="20"/>
     </row>
     <row r="454" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A454" s="18"/>
-      <c r="B454" s="18"/>
-      <c r="C454" s="18"/>
-      <c r="D454" s="18"/>
-      <c r="E454" s="18"/>
-      <c r="F454" s="18"/>
-      <c r="G454" s="18"/>
-      <c r="H454" s="18"/>
+      <c r="A454" s="20"/>
+      <c r="B454" s="20"/>
+      <c r="C454" s="20"/>
+      <c r="D454" s="20"/>
+      <c r="E454" s="20"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="20"/>
+      <c r="H454" s="20"/>
     </row>
     <row r="456" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A456" s="17" t="s">
+      <c r="A456" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B456" s="17" t="s">
+      <c r="B456" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C456" s="18"/>
-      <c r="D456" s="18"/>
-      <c r="E456" s="18"/>
-      <c r="F456" s="18"/>
-      <c r="G456" s="18"/>
-      <c r="H456" s="18"/>
+      <c r="C456" s="20"/>
+      <c r="D456" s="20"/>
+      <c r="E456" s="20"/>
+      <c r="F456" s="20"/>
+      <c r="G456" s="20"/>
+      <c r="H456" s="20"/>
     </row>
     <row r="457" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A457" s="18"/>
-      <c r="B457" s="18"/>
-      <c r="C457" s="18"/>
-      <c r="D457" s="18"/>
-      <c r="E457" s="18"/>
-      <c r="F457" s="18"/>
-      <c r="G457" s="18"/>
-      <c r="H457" s="18"/>
+      <c r="A457" s="20"/>
+      <c r="B457" s="20"/>
+      <c r="C457" s="20"/>
+      <c r="D457" s="20"/>
+      <c r="E457" s="20"/>
+      <c r="F457" s="20"/>
+      <c r="G457" s="20"/>
+      <c r="H457" s="20"/>
     </row>
     <row r="458" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A458" s="18"/>
-      <c r="B458" s="18"/>
-      <c r="C458" s="18"/>
-      <c r="D458" s="18"/>
-      <c r="E458" s="18"/>
-      <c r="F458" s="18"/>
-      <c r="G458" s="18"/>
-      <c r="H458" s="18"/>
+      <c r="A458" s="20"/>
+      <c r="B458" s="20"/>
+      <c r="C458" s="20"/>
+      <c r="D458" s="20"/>
+      <c r="E458" s="20"/>
+      <c r="F458" s="20"/>
+      <c r="G458" s="20"/>
+      <c r="H458" s="20"/>
     </row>
     <row r="459" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A459" s="18"/>
-      <c r="B459" s="18"/>
-      <c r="C459" s="18"/>
-      <c r="D459" s="18"/>
-      <c r="E459" s="18"/>
-      <c r="F459" s="18"/>
-      <c r="G459" s="18"/>
-      <c r="H459" s="18"/>
+      <c r="A459" s="20"/>
+      <c r="B459" s="20"/>
+      <c r="C459" s="20"/>
+      <c r="D459" s="20"/>
+      <c r="E459" s="20"/>
+      <c r="F459" s="20"/>
+      <c r="G459" s="20"/>
+      <c r="H459" s="20"/>
     </row>
     <row r="460" spans="1:8" ht="15.75" customHeight="1">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
     </row>
     <row r="461" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A461" s="17" t="s">
+      <c r="A461" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B461" s="17" t="s">
+      <c r="B461" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="C461" s="18"/>
-      <c r="D461" s="18"/>
-      <c r="E461" s="18"/>
-      <c r="F461" s="18"/>
-      <c r="G461" s="18"/>
-      <c r="H461" s="18"/>
+      <c r="C461" s="20"/>
+      <c r="D461" s="20"/>
+      <c r="E461" s="20"/>
+      <c r="F461" s="20"/>
+      <c r="G461" s="20"/>
+      <c r="H461" s="20"/>
     </row>
     <row r="462" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A462" s="18"/>
-      <c r="B462" s="18"/>
-      <c r="C462" s="18"/>
-      <c r="D462" s="18"/>
-      <c r="E462" s="18"/>
-      <c r="F462" s="18"/>
-      <c r="G462" s="18"/>
-      <c r="H462" s="18"/>
+      <c r="A462" s="20"/>
+      <c r="B462" s="20"/>
+      <c r="C462" s="20"/>
+      <c r="D462" s="20"/>
+      <c r="E462" s="20"/>
+      <c r="F462" s="20"/>
+      <c r="G462" s="20"/>
+      <c r="H462" s="20"/>
     </row>
     <row r="463" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A463" s="18"/>
-      <c r="B463" s="18"/>
-      <c r="C463" s="18"/>
-      <c r="D463" s="18"/>
-      <c r="E463" s="18"/>
-      <c r="F463" s="18"/>
-      <c r="G463" s="18"/>
-      <c r="H463" s="18"/>
+      <c r="A463" s="20"/>
+      <c r="B463" s="20"/>
+      <c r="C463" s="20"/>
+      <c r="D463" s="20"/>
+      <c r="E463" s="20"/>
+      <c r="F463" s="20"/>
+      <c r="G463" s="20"/>
+      <c r="H463" s="20"/>
     </row>
     <row r="464" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A464" s="18"/>
-      <c r="B464" s="18"/>
-      <c r="C464" s="18"/>
-      <c r="D464" s="18"/>
-      <c r="E464" s="18"/>
-      <c r="F464" s="18"/>
-      <c r="G464" s="18"/>
-      <c r="H464" s="18"/>
+      <c r="A464" s="20"/>
+      <c r="B464" s="20"/>
+      <c r="C464" s="20"/>
+      <c r="D464" s="20"/>
+      <c r="E464" s="20"/>
+      <c r="F464" s="20"/>
+      <c r="G464" s="20"/>
+      <c r="H464" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="160">
@@ -5824,8 +5831,8 @@
   </sheetPr>
   <dimension ref="A1:S76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="M77" sqref="M77"/>
+    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -5927,13 +5934,13 @@
       <c r="L2" s="9">
         <v>0</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="17">
         <v>10.3</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23"/>
       <c r="S2" s="6"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
@@ -5973,13 +5980,13 @@
       <c r="L3" s="11">
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="18">
         <v>-7.17</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="23"/>
       <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1">
@@ -6019,13 +6026,13 @@
       <c r="L4" s="9">
         <v>0</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="17">
         <v>2</v>
       </c>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="18"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
       <c r="S4" s="7"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
@@ -6065,7 +6072,7 @@
       <c r="L5" s="9">
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="17">
         <v>7.66</v>
       </c>
       <c r="O5" s="6"/>
@@ -6111,7 +6118,7 @@
       <c r="L6" s="11">
         <v>0</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="18">
         <v>45.54</v>
       </c>
       <c r="O6" s="6"/>
@@ -6157,7 +6164,7 @@
       <c r="L7" s="9">
         <v>0</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="17">
         <v>-102.62</v>
       </c>
       <c r="O7" s="6"/>
@@ -6203,7 +6210,7 @@
       <c r="L8" s="11">
         <v>0</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="18">
         <v>-70</v>
       </c>
       <c r="O8" s="7"/>
@@ -6249,7 +6256,7 @@
       <c r="L9" s="9">
         <v>0</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="17">
         <v>-10.199999999999999</v>
       </c>
       <c r="O9" s="6"/>
@@ -6295,7 +6302,7 @@
       <c r="L10" s="9">
         <v>0</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="17">
         <v>-100</v>
       </c>
       <c r="O10" s="6"/>
@@ -6341,7 +6348,7 @@
       <c r="L11" s="11">
         <v>0</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="18">
         <v>-60</v>
       </c>
       <c r="O11" s="6"/>
@@ -6387,7 +6394,7 @@
       <c r="L12" s="9">
         <v>0</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="17">
         <v>15</v>
       </c>
       <c r="O12" s="6"/>
@@ -6433,7 +6440,7 @@
       <c r="L13" s="9">
         <v>0</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="17">
         <v>5</v>
       </c>
       <c r="O13" s="6"/>
@@ -6479,7 +6486,7 @@
       <c r="L14" s="11">
         <v>0</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="18">
         <v>53.06</v>
       </c>
       <c r="O14" s="6"/>
@@ -6525,7 +6532,7 @@
       <c r="L15" s="9">
         <v>0</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="17">
         <v>50.25</v>
       </c>
       <c r="O15" s="7"/>
@@ -6571,7 +6578,7 @@
       <c r="L16" s="11">
         <v>0</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="18">
         <v>520</v>
       </c>
       <c r="O16" s="6"/>
@@ -6617,7 +6624,7 @@
       <c r="L17" s="9">
         <v>0</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="17">
         <v>400</v>
       </c>
       <c r="O17" s="6"/>
@@ -6663,7 +6670,7 @@
       <c r="L18" s="11">
         <v>0</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="18">
         <v>-625.29999999999995</v>
       </c>
       <c r="O18" s="6"/>
@@ -6709,7 +6716,7 @@
       <c r="L19" s="9">
         <v>0</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="17">
         <v>283.89999999999998</v>
       </c>
       <c r="O19" s="6"/>
@@ -6755,7 +6762,7 @@
       <c r="L20" s="11">
         <v>0</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="18">
         <v>-827.38</v>
       </c>
       <c r="O20" s="6"/>
@@ -6801,7 +6808,7 @@
       <c r="L21" s="9">
         <v>0</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="17">
         <v>396</v>
       </c>
       <c r="O21" s="6"/>
@@ -6847,7 +6854,7 @@
       <c r="L22" s="11">
         <v>0</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="18">
         <v>-200</v>
       </c>
       <c r="O22" s="6"/>
@@ -6893,7 +6900,7 @@
       <c r="L23" s="9">
         <v>0</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="17">
         <v>-319.27</v>
       </c>
       <c r="O23" s="6"/>
@@ -6939,7 +6946,7 @@
       <c r="L24" s="9">
         <v>0</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="17">
         <v>-300</v>
       </c>
     </row>
@@ -6980,7 +6987,7 @@
       <c r="L25" s="11">
         <v>0</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="18">
         <v>-303</v>
       </c>
     </row>
@@ -7021,7 +7028,7 @@
       <c r="L26" s="11">
         <v>0</v>
       </c>
-      <c r="M26" s="11">
+      <c r="M26" s="18">
         <v>250</v>
       </c>
     </row>
@@ -7062,7 +7069,7 @@
       <c r="L27" s="9">
         <v>0</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="17">
         <v>-144.43</v>
       </c>
     </row>
@@ -7103,7 +7110,7 @@
       <c r="L28" s="11">
         <v>0</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="18">
         <v>139.41999999999999</v>
       </c>
     </row>
@@ -7144,7 +7151,7 @@
       <c r="L29" s="11">
         <v>0</v>
       </c>
-      <c r="M29" s="11">
+      <c r="M29" s="18">
         <v>-250</v>
       </c>
     </row>
@@ -7185,7 +7192,7 @@
       <c r="L30" s="9">
         <v>0</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="17">
         <v>-500</v>
       </c>
     </row>
@@ -7226,7 +7233,7 @@
       <c r="L31" s="11">
         <v>0</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="18">
         <v>-2834.65</v>
       </c>
     </row>
@@ -7267,7 +7274,7 @@
       <c r="L32" s="9">
         <v>0</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="17">
         <v>-2834.3</v>
       </c>
     </row>
@@ -7308,7 +7315,7 @@
       <c r="L33" s="11">
         <v>0</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="18">
         <v>-3700</v>
       </c>
     </row>
@@ -7349,7 +7356,7 @@
       <c r="L34" s="9">
         <v>0</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="17">
         <v>1515</v>
       </c>
     </row>
@@ -7390,7 +7397,7 @@
       <c r="L35" s="11">
         <v>0</v>
       </c>
-      <c r="M35" s="11">
+      <c r="M35" s="18">
         <v>540</v>
       </c>
     </row>
@@ -7431,7 +7438,7 @@
       <c r="L36" s="9">
         <v>0</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="17">
         <v>140</v>
       </c>
     </row>
@@ -7472,7 +7479,7 @@
       <c r="L37" s="9">
         <v>0</v>
       </c>
-      <c r="M37" s="9">
+      <c r="M37" s="17">
         <v>275</v>
       </c>
     </row>
@@ -7513,7 +7520,7 @@
       <c r="L38" s="11">
         <v>0</v>
       </c>
-      <c r="M38" s="11">
+      <c r="M38" s="18">
         <v>-562.73</v>
       </c>
     </row>
@@ -7554,7 +7561,7 @@
       <c r="L39" s="9">
         <v>0</v>
       </c>
-      <c r="M39" s="9">
+      <c r="M39" s="17">
         <v>-370</v>
       </c>
     </row>
@@ -7595,7 +7602,7 @@
       <c r="L40" s="11">
         <v>0</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="18">
         <v>170</v>
       </c>
     </row>
@@ -7636,7 +7643,7 @@
       <c r="L41" s="9">
         <v>0</v>
       </c>
-      <c r="M41" s="9">
+      <c r="M41" s="17">
         <v>-355</v>
       </c>
     </row>
@@ -7677,7 +7684,7 @@
       <c r="L42" s="11">
         <v>0</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="18">
         <v>115.69</v>
       </c>
     </row>
@@ -7718,7 +7725,7 @@
       <c r="L43" s="9">
         <v>0</v>
       </c>
-      <c r="M43" s="9">
+      <c r="M43" s="17">
         <v>59.22</v>
       </c>
     </row>
@@ -7759,7 +7766,7 @@
       <c r="L44" s="11">
         <v>0</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M44" s="18">
         <v>238</v>
       </c>
     </row>
@@ -7800,7 +7807,7 @@
       <c r="L45" s="9">
         <v>0</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="17">
         <v>115.6</v>
       </c>
     </row>
@@ -7841,7 +7848,7 @@
       <c r="L46" s="11">
         <v>0</v>
       </c>
-      <c r="M46" s="11">
+      <c r="M46" s="18">
         <v>90.09</v>
       </c>
     </row>
@@ -7882,7 +7889,7 @@
       <c r="L47" s="11">
         <v>0</v>
       </c>
-      <c r="M47" s="11">
+      <c r="M47" s="18">
         <v>-330</v>
       </c>
     </row>
@@ -7923,7 +7930,7 @@
       <c r="L48" s="9">
         <v>0</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="17">
         <v>-365</v>
       </c>
     </row>
@@ -7964,7 +7971,7 @@
       <c r="L49" s="11">
         <v>0</v>
       </c>
-      <c r="M49" s="11">
+      <c r="M49" s="18">
         <v>210</v>
       </c>
     </row>
@@ -8005,7 +8012,7 @@
       <c r="L50" s="9">
         <v>0</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="17">
         <v>50</v>
       </c>
     </row>
@@ -8046,7 +8053,7 @@
       <c r="L51" s="11">
         <v>0</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="18">
         <v>-499</v>
       </c>
     </row>
@@ -8087,7 +8094,7 @@
       <c r="L52" s="9">
         <v>0</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="17">
         <v>957.21</v>
       </c>
     </row>
@@ -8128,7 +8135,7 @@
       <c r="L53" s="11">
         <v>0</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="18">
         <v>495</v>
       </c>
     </row>
@@ -8169,7 +8176,7 @@
       <c r="L54" s="9">
         <v>0</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="17">
         <v>376.48</v>
       </c>
     </row>
@@ -8210,7 +8217,7 @@
       <c r="L55" s="9">
         <v>0</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M55" s="17">
         <v>425.43</v>
       </c>
     </row>
@@ -8251,7 +8258,7 @@
       <c r="L56" s="9">
         <v>0</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="17">
         <v>-440.16</v>
       </c>
     </row>
@@ -8292,7 +8299,7 @@
       <c r="L57" s="11">
         <v>0</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="18">
         <v>153.86000000000001</v>
       </c>
     </row>
@@ -8333,7 +8340,7 @@
       <c r="L58" s="9">
         <v>0</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="17">
         <v>-2182.69</v>
       </c>
     </row>
@@ -8374,7 +8381,7 @@
       <c r="L59" s="9">
         <v>0</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M59" s="17">
         <v>420</v>
       </c>
     </row>
@@ -8415,7 +8422,7 @@
       <c r="L60" s="11">
         <v>0</v>
       </c>
-      <c r="M60" s="11">
+      <c r="M60" s="18">
         <v>41.66</v>
       </c>
     </row>
@@ -8456,7 +8463,7 @@
       <c r="L61" s="9">
         <v>0</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="17">
         <v>69.44</v>
       </c>
     </row>
@@ -8497,7 +8504,7 @@
       <c r="L62" s="11">
         <v>0</v>
       </c>
-      <c r="M62" s="11">
+      <c r="M62" s="18">
         <v>38.01</v>
       </c>
     </row>
@@ -8538,7 +8545,7 @@
       <c r="L63" s="9">
         <v>0</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="17">
         <v>52.64</v>
       </c>
     </row>
@@ -8579,7 +8586,7 @@
       <c r="L64" s="11">
         <v>0</v>
       </c>
-      <c r="M64" s="11">
+      <c r="M64" s="18">
         <v>80.55</v>
       </c>
     </row>
@@ -8620,7 +8627,7 @@
       <c r="L65" s="9">
         <v>0</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="17">
         <v>-328.3</v>
       </c>
     </row>
@@ -8661,7 +8668,7 @@
       <c r="L66" s="11">
         <v>0</v>
       </c>
-      <c r="M66" s="11">
+      <c r="M66" s="18">
         <v>-1220</v>
       </c>
     </row>
@@ -8702,7 +8709,7 @@
       <c r="L67" s="9">
         <v>0</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="17">
         <v>505</v>
       </c>
     </row>
@@ -8743,7 +8750,7 @@
       <c r="L68" s="11">
         <v>0</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M68" s="18">
         <v>-530.96</v>
       </c>
     </row>
@@ -8784,7 +8791,7 @@
       <c r="L69" s="11">
         <v>0</v>
       </c>
-      <c r="M69" s="11">
+      <c r="M69" s="18">
         <v>-277.60000000000002</v>
       </c>
     </row>
@@ -8825,7 +8832,7 @@
       <c r="L70" s="9">
         <v>0</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="17">
         <v>-377.57</v>
       </c>
     </row>
@@ -8866,7 +8873,7 @@
       <c r="L71" s="9">
         <v>0</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M71" s="17">
         <v>-2056</v>
       </c>
     </row>
@@ -8907,7 +8914,7 @@
       <c r="L72" s="11">
         <v>0</v>
       </c>
-      <c r="M72" s="11">
+      <c r="M72" s="18">
         <v>-278.36</v>
       </c>
     </row>
@@ -8948,7 +8955,7 @@
       <c r="L73" s="9">
         <v>0</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="17">
         <v>265</v>
       </c>
     </row>
@@ -8989,7 +8996,7 @@
       <c r="L74" s="11">
         <v>0</v>
       </c>
-      <c r="M74" s="11">
+      <c r="M74" s="18">
         <v>48.46</v>
       </c>
     </row>
@@ -9030,7 +9037,7 @@
       <c r="L75" s="9">
         <v>0</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="17">
         <v>468</v>
       </c>
     </row>
@@ -9049,11 +9056,6 @@
       <c r="N76" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>